--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C18B10E-5A49-4058-9A0F-A7C8193C8A0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721CD64-6167-42FD-8C44-8278655429E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -33,7 +33,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+  <si>
+    <t>CBM1000</t>
+  </si>
+  <si>
+    <t>CBM1001</t>
+  </si>
+  <si>
+    <t>CBQ1000</t>
+  </si>
+  <si>
+    <t>CIT1000</t>
+  </si>
+  <si>
+    <t>FIC1000</t>
+  </si>
+  <si>
+    <t>CBM1002</t>
+  </si>
+  <si>
+    <t>CBM1003</t>
+  </si>
+  <si>
+    <t>CBF1000</t>
+  </si>
+  <si>
+    <t>CIT1010</t>
+  </si>
+  <si>
+    <t>CBM1005</t>
+  </si>
+  <si>
+    <t>CBM1006</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CIT2000</t>
+  </si>
+  <si>
+    <t>CIT2100</t>
+  </si>
+  <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
   <si>
     <t>Código</t>
   </si>
@@ -50,17 +104,260 @@
     <t>Abre la/s asignatura/s:</t>
   </si>
   <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 16, 17</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>MECÁNICA</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA Y GEOMETRÍA</t>
+  </si>
+  <si>
+    <t>CÁLCULO I</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t>CÁLCULO II</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>QUÍMICA</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN AVANZADA</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>INGLÉS I</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Prerreq</t>
   </si>
   <si>
     <t>Equivalencias</t>
+  </si>
+  <si>
+    <t>CIT2006</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>CIT2008</t>
+  </si>
+  <si>
+    <t>CIT2114</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2107</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>CII2100</t>
+  </si>
+  <si>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>35, 42</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2205</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>31, 35</t>
+  </si>
+  <si>
+    <t>CIT2007</t>
+  </si>
+  <si>
+    <t>CIG1013</t>
+  </si>
+  <si>
+    <t>INGLÉS II</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2108</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>CIT2110</t>
+  </si>
+  <si>
+    <t>CIT2003</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>15, 25</t>
+  </si>
+  <si>
+    <t>CIT2010</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>CIT2109</t>
+  </si>
+  <si>
+    <t>CIG1014</t>
+  </si>
+  <si>
+    <t>INGLÉS III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +374,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +402,44 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BDBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF949A4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,17 +462,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -541,7 +916,7 @@
   <dimension ref="A2:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A3" sqref="A3:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,172 +924,790 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8">
+        <v>38</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8"/>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9"/>
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10"/>
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="18">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11"/>
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12"/>
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13"/>
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10">
+        <v>18</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14"/>
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>7</v>
+      </c>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15"/>
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="10">
+        <v>19</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10">
+        <v>9</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="20">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="20">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="11">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="20">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11">
+        <v>14</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="20">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="11">
+        <v>27</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11">
+        <v>5</v>
+      </c>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="12">
+        <v>29</v>
+      </c>
+      <c r="E24" s="21">
+        <v>5</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="21">
+        <v>5</v>
+      </c>
+      <c r="F25" s="23">
+        <v>18</v>
+      </c>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="21">
+        <v>5</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="21">
+        <v>5</v>
+      </c>
+      <c r="F27" s="12">
+        <v>19</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="21">
+        <v>5</v>
+      </c>
+      <c r="F29" s="12">
+        <v>21</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="22">
+        <v>6</v>
+      </c>
+      <c r="F30" s="13">
+        <v>12</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="22">
+        <v>6</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="22">
+        <v>6</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="22">
+        <v>6</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="22">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13">
+        <v>23</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="22">
+        <v>6</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721CD64-6167-42FD-8C44-8278655429E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5DD845-DB83-41ED-B762-A64DECE33B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="2295" yWindow="2220" windowWidth="18000" windowHeight="9810" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>CBM1000</t>
   </si>
@@ -221,136 +221,10 @@
     <t>CIT2114</t>
   </si>
   <si>
-    <t>CII2750</t>
-  </si>
-  <si>
-    <t>OPTIMIZACIÓN</t>
-  </si>
-  <si>
-    <t>6, 12</t>
-  </si>
-  <si>
-    <t>CIT2107</t>
-  </si>
-  <si>
-    <t>CII2000</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>CII2100</t>
-  </si>
-  <si>
     <t>7, 8, 34</t>
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>30, 32</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS I</t>
-  </si>
-  <si>
-    <t>35, 42</t>
-  </si>
-  <si>
-    <t>15, 19</t>
-  </si>
-  <si>
-    <t>CIT2205</t>
-  </si>
-  <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
-    <t>BASES DE DATOS</t>
-  </si>
-  <si>
-    <t>31, 35</t>
-  </si>
-  <si>
-    <t>CIT2007</t>
-  </si>
-  <si>
-    <t>CIG1013</t>
-  </si>
-  <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>CIT2202</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>15, 16, 22</t>
-  </si>
-  <si>
-    <t>CIT2108</t>
-  </si>
-  <si>
-    <t>CIT2101</t>
-  </si>
-  <si>
-    <t>SEÑALES Y SISTEMAS</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>16, 23</t>
-  </si>
-  <si>
-    <t>CIT2110</t>
-  </si>
-  <si>
-    <t>CIT2003</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERATIVOS</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>15, 25</t>
-  </si>
-  <si>
-    <t>CIT2010</t>
-  </si>
-  <si>
-    <t>CIT2103</t>
-  </si>
-  <si>
-    <t>SISTEMAS DIGITALES</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>CIT2109</t>
-  </si>
-  <si>
-    <t>CIG1014</t>
-  </si>
-  <si>
-    <t>INGLÉS III</t>
   </si>
 </sst>
 </file>
@@ -509,7 +383,7 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -915,11 +789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -985,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1006,7 +880,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1153,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E12" s="18">
         <v>2</v>
@@ -1216,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -1304,7 +1178,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E19" s="20">
         <v>4</v>
@@ -1371,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E22" s="20">
         <v>4</v>
@@ -1403,272 +1277,112 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="12">
-        <v>29</v>
-      </c>
-      <c r="E24" s="21">
-        <v>5</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>65</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="21">
-        <v>5</v>
-      </c>
-      <c r="F25" s="23">
-        <v>18</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="21">
-        <v>5</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="21">
-        <v>5</v>
-      </c>
-      <c r="F27" s="12">
-        <v>19</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>82</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="21">
-        <v>5</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="21">
-        <v>5</v>
-      </c>
-      <c r="F29" s="12">
-        <v>21</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="21"/>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="22">
-        <v>6</v>
-      </c>
-      <c r="F30" s="13">
-        <v>12</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="22">
-        <v>6</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>89</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="22">
-        <v>6</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>94</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="22">
-        <v>6</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="22">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13">
-        <v>23</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>103</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="22">
-        <v>6</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>85</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1681,7 +1395,7 @@
       <c r="D38"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721CD64-6167-42FD-8C44-8278655429E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3885188-831B-4A06-8672-E6A620502D67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
   <si>
     <t>CBM1000</t>
   </si>
@@ -80,9 +80,6 @@
     <t>CIT2204</t>
   </si>
   <si>
-    <t>CBM2000</t>
-  </si>
-  <si>
     <t>CBF1002</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>CÁLCULO III</t>
   </si>
   <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
     <t>QUÍMICA</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
   </si>
   <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
     <t>PROBABILIDADES Y ESTADÍSTICAS</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
     <t>CIG1012</t>
   </si>
   <si>
-    <t>CIT2008</t>
-  </si>
-  <si>
     <t>CIT2114</t>
   </si>
   <si>
@@ -284,27 +272,6 @@
     <t>CIT2007</t>
   </si>
   <si>
-    <t>CIG1013</t>
-  </si>
-  <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>CIT2202</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>15, 16, 22</t>
-  </si>
-  <si>
-    <t>CIT2108</t>
-  </si>
-  <si>
     <t>CIT2101</t>
   </si>
   <si>
@@ -347,10 +314,124 @@
     <t>CIT2109</t>
   </si>
   <si>
-    <t>CIG1014</t>
-  </si>
-  <si>
-    <t>INGLÉS III</t>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>CIT2005</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>CIT2012</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>CIT2111</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>CIT2203</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIÓNAL</t>
+  </si>
+  <si>
+    <t>CIT2206</t>
+  </si>
+  <si>
+    <t>CIT2004</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>CIT3000</t>
+  </si>
+  <si>
+    <t>CIT2105</t>
+  </si>
+  <si>
+    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
+  </si>
+  <si>
+    <t>CIT2113</t>
+  </si>
+  <si>
+    <t>CIT2201</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS II</t>
+  </si>
+  <si>
+    <t>CIT3202</t>
+  </si>
+  <si>
+    <t>CIT33XX-1</t>
+  </si>
+  <si>
+    <t>Electivo Profesional</t>
+  </si>
+  <si>
+    <t>CIT34XX-1</t>
+  </si>
+  <si>
+    <t>CIT34XX-2</t>
+  </si>
+  <si>
+    <t>CIT3200</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE PROYECTOS TIC</t>
+  </si>
+  <si>
+    <t>CIT2207</t>
+  </si>
+  <si>
+    <t>CIT33XX-2</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>FIC1002</t>
+  </si>
+  <si>
+    <t>40, 42</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>24, 35, 36</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>34, 42</t>
   </si>
 </sst>
 </file>
@@ -390,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +519,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF16B6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA3EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -482,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -507,6 +606,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -915,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,25 +1040,25 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -961,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -982,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1003,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1024,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8">
         <v>9</v>
@@ -1045,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8">
         <v>38</v>
@@ -1066,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="18">
         <v>2</v>
@@ -1087,10 +1195,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="18">
         <v>2</v>
@@ -1108,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
@@ -1129,10 +1237,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="18">
         <v>2</v>
@@ -1147,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="18">
         <v>2</v>
@@ -1171,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10">
         <v>18</v>
@@ -1180,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -1192,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="19">
         <v>3</v>
@@ -1213,16 +1321,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" s="19"/>
     </row>
@@ -1234,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="10">
         <v>19</v>
@@ -1246,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1257,10 +1365,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="19">
         <v>3</v>
@@ -1269,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1280,31 +1388,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="20">
         <v>4</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="11">
+        <v>23</v>
       </c>
       <c r="E19" s="20">
         <v>4</v>
@@ -1312,158 +1420,160 @@
       <c r="F19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="11">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="20">
         <v>4</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="20"/>
+      <c r="F20" s="11">
+        <v>14</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E21" s="20">
         <v>4</v>
       </c>
       <c r="F21" s="11">
-        <v>14</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>70</v>
+        <v>125</v>
+      </c>
+      <c r="D22" s="11">
+        <v>27</v>
       </c>
       <c r="E22" s="20">
         <v>4</v>
       </c>
       <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="11">
-        <v>27</v>
-      </c>
-      <c r="E23" s="20">
-        <v>4</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="D23" s="12">
+        <v>29</v>
+      </c>
+      <c r="E23" s="21">
         <v>5</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="F23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="12">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="21">
         <v>5</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>65</v>
-      </c>
+      <c r="F24" s="23">
+        <v>18</v>
+      </c>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="E25" s="21">
         <v>5</v>
       </c>
-      <c r="F25" s="23">
-        <v>18</v>
-      </c>
-      <c r="G25" s="21"/>
+      <c r="F25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="21">
         <v>5</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>77</v>
+      <c r="F26" s="12">
+        <v>19</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>78</v>
@@ -1471,250 +1581,448 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E27" s="21">
         <v>5</v>
       </c>
       <c r="F27" s="12">
-        <v>19</v>
-      </c>
-      <c r="G27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="22">
+        <v>6</v>
+      </c>
+      <c r="F28" s="13">
+        <v>12</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="22">
+        <v>6</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="21">
-        <v>5</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="G29" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="21">
-        <v>5</v>
-      </c>
-      <c r="F29" s="12">
-        <v>21</v>
-      </c>
-      <c r="G29" s="21"/>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E30" s="22">
         <v>6</v>
       </c>
-      <c r="F30" s="13">
-        <v>12</v>
+      <c r="F30" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E31" s="22">
         <v>6</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>88</v>
+      <c r="F31" s="13">
+        <v>23</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="24">
+        <v>34</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="25">
+        <v>46</v>
+      </c>
+      <c r="E32" s="26">
+        <v>7</v>
+      </c>
+      <c r="F32" s="25">
+        <v>2</v>
+      </c>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>35</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="26">
+        <v>7</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>36</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="25">
+        <v>41</v>
+      </c>
+      <c r="E34" s="26">
+        <v>7</v>
+      </c>
+      <c r="F34" s="25">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="G34" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>37</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="26">
+        <v>7</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>38</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="26">
+        <v>7</v>
+      </c>
+      <c r="F36" s="25">
+        <v>32</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="22">
-        <v>6</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>39</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="29">
+        <v>8</v>
+      </c>
+      <c r="F37" s="28">
+        <v>5</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>40</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="29">
+        <v>8</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>41</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="29">
+        <v>8</v>
+      </c>
+      <c r="F39" s="28">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="22">
-        <v>6</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="22">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13">
-        <v>23</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="22">
-        <v>6</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39"/>
+      <c r="G39" s="29" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40"/>
+      <c r="A40" s="27">
+        <v>42</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="29">
+        <v>8</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41"/>
+      <c r="A41" s="27">
+        <v>43</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="29">
+        <v>8</v>
+      </c>
+      <c r="F41" s="28">
+        <v>0</v>
+      </c>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D42"/>
+      <c r="A42" s="30">
+        <v>44</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="32">
+        <v>9</v>
+      </c>
+      <c r="F42" s="31">
+        <v>0</v>
+      </c>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D43"/>
+      <c r="A43" s="30">
+        <v>45</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="32">
+        <v>9</v>
+      </c>
+      <c r="F43" s="31">
+        <v>0</v>
+      </c>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D44"/>
+      <c r="A44" s="30">
+        <v>46</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="32">
+        <v>9</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0</v>
+      </c>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D45"/>
+      <c r="A45" s="30">
+        <v>47</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="32">
+        <v>9</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50"/>
+      <c r="A46" s="30">
+        <v>48</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="32">
+        <v>9</v>
+      </c>
+      <c r="F46" s="31">
+        <v>0</v>
+      </c>
+      <c r="G46" s="32"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3885188-831B-4A06-8672-E6A620502D67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD671A-69B7-4CC4-88E0-6521A0A1ED6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>CBM1000</t>
   </si>
@@ -230,12 +230,6 @@
     <t>CII2100</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>CIT2106</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>PROYECTO EN TICS I</t>
   </si>
   <si>
-    <t>35, 42</t>
-  </si>
-  <si>
     <t>15, 19</t>
   </si>
   <si>
@@ -266,9 +257,6 @@
     <t>BASES DE DATOS</t>
   </si>
   <si>
-    <t>31, 35</t>
-  </si>
-  <si>
     <t>CIT2007</t>
   </si>
   <si>
@@ -278,9 +266,6 @@
     <t>SEÑALES Y SISTEMAS</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>16, 23</t>
   </si>
   <si>
@@ -293,9 +278,6 @@
     <t>SISTEMAS OPERATIVOS</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>15, 25</t>
   </si>
   <si>
@@ -308,130 +290,52 @@
     <t>SISTEMAS DIGITALES</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>CIT2109</t>
   </si>
   <si>
-    <t>CII1000</t>
-  </si>
-  <si>
-    <t>CONTABILIDAD Y COSTOS</t>
-  </si>
-  <si>
-    <t>CIT2005</t>
-  </si>
-  <si>
-    <t>INGENIERÍA DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>CIT2012</t>
-  </si>
-  <si>
-    <t>CIT2102</t>
-  </si>
-  <si>
-    <t>COMUNICACIONES DIGITALES</t>
-  </si>
-  <si>
-    <t>CIT2111</t>
-  </si>
-  <si>
-    <t>FIC1003</t>
-  </si>
-  <si>
-    <t>DERECHO EN INGENIERÍA</t>
-  </si>
-  <si>
-    <t>CIT2104</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE COMPUTADORES</t>
-  </si>
-  <si>
-    <t>CIT2203</t>
-  </si>
-  <si>
-    <t>GESTIÓN ORGANIZACIÓNAL</t>
-  </si>
-  <si>
-    <t>CIT2206</t>
-  </si>
-  <si>
-    <t>CIT2004</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SISTEMAS</t>
-  </si>
-  <si>
-    <t>CIT3000</t>
-  </si>
-  <si>
-    <t>CIT2105</t>
-  </si>
-  <si>
-    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
-  </si>
-  <si>
-    <t>CIT2113</t>
-  </si>
-  <si>
-    <t>CIT2201</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS II</t>
-  </si>
-  <si>
-    <t>CIT3202</t>
-  </si>
-  <si>
-    <t>CIT33XX-1</t>
-  </si>
-  <si>
-    <t>Electivo Profesional</t>
-  </si>
-  <si>
-    <t>CIT34XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-2</t>
-  </si>
-  <si>
-    <t>CIT3200</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN DE PROYECTOS TIC</t>
-  </si>
-  <si>
-    <t>CIT2207</t>
-  </si>
-  <si>
-    <t>CIT33XX-2</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
     <t>FIC1002</t>
   </si>
   <si>
-    <t>40, 42</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>24, 35, 36</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>34, 42</t>
+    <t>7, 8, 33</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CIT2008</t>
+  </si>
+  <si>
+    <t>FIC1001</t>
+  </si>
+  <si>
+    <t>INGLÉS I</t>
+  </si>
+  <si>
+    <t>34, 41</t>
+  </si>
+  <si>
+    <t>31, 34</t>
+  </si>
+  <si>
+    <t>INGLÉS II</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2108</t>
   </si>
 </sst>
 </file>
@@ -617,7 +521,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,7 +629,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1023,11 +927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1093,7 +997,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1114,7 +1018,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1261,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E12" s="18">
         <v>2</v>
@@ -1324,7 +1228,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -1403,625 +1307,469 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E19" s="20">
         <v>4</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="D20" s="11">
+        <v>23</v>
       </c>
       <c r="E20" s="20">
         <v>4</v>
       </c>
-      <c r="F20" s="11">
-        <v>14</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="F20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E21" s="20">
         <v>4</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="11">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E22" s="20">
         <v>4</v>
       </c>
       <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="11">
+        <v>27</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11">
         <v>5</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="12">
-        <v>29</v>
-      </c>
-      <c r="E23" s="21">
-        <v>5</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="D24" s="12">
+        <v>29</v>
       </c>
       <c r="E24" s="21">
         <v>5</v>
       </c>
-      <c r="F24" s="23">
-        <v>18</v>
+      <c r="F24" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="21">
         <v>5</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>73</v>
+      <c r="F25" s="23">
+        <v>18</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E26" s="21">
         <v>5</v>
       </c>
-      <c r="F26" s="12">
-        <v>19</v>
+      <c r="F26" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E27" s="21">
         <v>5</v>
       </c>
       <c r="F27" s="12">
+        <v>19</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5</v>
+      </c>
+      <c r="F28" s="12">
         <v>0</v>
       </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>28</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="22">
-        <v>6</v>
-      </c>
-      <c r="F28" s="13">
-        <v>12</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="22">
-        <v>6</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>83</v>
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="21">
+        <v>5</v>
+      </c>
+      <c r="F29" s="12">
+        <v>21</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="22">
         <v>6</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>87</v>
+      <c r="F30" s="13">
+        <v>12</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E31" s="22">
         <v>6</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="13">
+        <v>35</v>
+      </c>
+      <c r="E32" s="22">
+        <v>6</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="13">
+        <v>40</v>
+      </c>
+      <c r="E33" s="22">
+        <v>6</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="13">
+        <v>37</v>
+      </c>
+      <c r="E34" s="22">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13">
         <v>23</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>34</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="25">
-        <v>46</v>
-      </c>
-      <c r="E32" s="26">
-        <v>7</v>
-      </c>
-      <c r="F32" s="25">
-        <v>2</v>
-      </c>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>35</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="26">
-        <v>7</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>36</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="25">
-        <v>41</v>
-      </c>
-      <c r="E34" s="26">
-        <v>7</v>
-      </c>
-      <c r="F34" s="25">
-        <v>30</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>100</v>
+      <c r="G34" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>37</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="26">
-        <v>7</v>
-      </c>
-      <c r="F35" s="25">
-        <v>0</v>
-      </c>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>38</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="26">
-        <v>7</v>
-      </c>
-      <c r="F36" s="25">
-        <v>32</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>92</v>
-      </c>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
-        <v>39</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="29">
-        <v>8</v>
-      </c>
-      <c r="F37" s="28">
-        <v>5</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
-        <v>40</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="29">
-        <v>8</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>110</v>
-      </c>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
-        <v>41</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="29">
-        <v>8</v>
-      </c>
-      <c r="F39" s="28">
-        <v>31</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>113</v>
-      </c>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
-        <v>42</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="29">
-        <v>8</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>116</v>
-      </c>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
-        <v>43</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="29">
-        <v>8</v>
-      </c>
-      <c r="F41" s="28">
-        <v>0</v>
-      </c>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
-        <v>44</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="32">
-        <v>9</v>
-      </c>
-      <c r="F42" s="31">
-        <v>0</v>
-      </c>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
-        <v>45</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="32">
-        <v>9</v>
-      </c>
-      <c r="F43" s="31">
-        <v>0</v>
-      </c>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>46</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="32">
-        <v>9</v>
-      </c>
-      <c r="F44" s="31">
-        <v>0</v>
-      </c>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
-        <v>47</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="32">
-        <v>9</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>123</v>
-      </c>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
-        <v>48</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="32">
-        <v>9</v>
-      </c>
-      <c r="F46" s="31">
-        <v>0</v>
-      </c>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="32"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE07380-B209-4B69-866F-3C6D9D5E9EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D69AF7-7DE3-4C2B-AB79-D645BCE7D069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
+    <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>CBM1000</t>
   </si>
@@ -125,13 +125,199 @@
     <t>Prerreq</t>
   </si>
   <si>
-    <t>Equivalencias</t>
-  </si>
-  <si>
-    <t>7, 8, 33</t>
-  </si>
-  <si>
-    <t>53</t>
+    <t>CBM1005</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>CBM1006</t>
+  </si>
+  <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>CIT2000</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2100</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>CIT2003</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>15, 25</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>35, 42</t>
+  </si>
+  <si>
+    <t>31, 35</t>
+  </si>
+  <si>
+    <t>CIG1013</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>CIG1014</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL III</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -171,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,24 +405,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF16B6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDA3EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -281,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -306,15 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -348,16 +507,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -372,8 +531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11630025" y="190499"/>
-          <a:ext cx="5667376" cy="1533526"/>
+          <a:off x="9334500" y="409573"/>
+          <a:ext cx="6057900" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,14 +567,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
+            <a:rPr lang="es-CL" sz="1400"/>
             <a:t>En uno</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-CL" sz="1100" baseline="0"/>
+            <a:rPr lang="es-CL" sz="1400" baseline="0"/>
             <a:t> de los Excel adjuntandos, correspondiente a tu malla academica, las asignaturas estan separadas por semestres y en colores. Para indicarle a la aplicación hasta que semestre ha cursado, deberá copiar desde el Excel de su malla las asignaturas que usted ha aprobado hasta este momento, y copiarlas en esta planilla.  Se deben copiar los elementos de TODAS las columnas, para que el código tenga el formato correcto para calcular sus asignaturas críticas.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
+          <a:endParaRPr lang="es-CL" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -724,7 +883,7 @@
   <dimension ref="A2:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="A13:G29"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +897,7 @@
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -757,11 +916,8 @@
       <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -780,9 +936,8 @@
       <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -793,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -801,9 +956,8 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -814,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -822,9 +976,8 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -843,9 +996,8 @@
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -864,9 +1016,8 @@
       <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -885,9 +1036,8 @@
       <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -906,9 +1056,8 @@
       <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -927,9 +1076,8 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -948,9 +1096,8 @@
       <c r="F11" s="9">
         <v>4</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -961,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E12" s="18">
         <v>2</v>
@@ -969,314 +1116,506 @@
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10">
+        <v>18</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10">
+        <v>19</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="19"/>
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="20">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="20">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="20"/>
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="20">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="20">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="11">
+        <v>27</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="12">
+        <v>29</v>
+      </c>
+      <c r="E24" s="21">
+        <v>5</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="21">
+        <v>5</v>
+      </c>
+      <c r="F25" s="23">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="21">
+        <v>5</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="21">
+        <v>5</v>
+      </c>
+      <c r="F27" s="12">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="21">
+        <v>5</v>
+      </c>
+      <c r="F29" s="12">
+        <v>21</v>
+      </c>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="22"/>
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="22">
+        <v>6</v>
+      </c>
+      <c r="F30" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="22">
+        <v>6</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="22">
+        <v>6</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="22">
+        <v>6</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="22">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="22">
+        <v>6</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D69AF7-7DE3-4C2B-AB79-D645BCE7D069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6551C2-9D89-4A06-A0BF-32EAC6083514}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
   <si>
     <t>CBM1000</t>
   </si>
@@ -318,6 +318,45 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>CIT2005</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>40, 42</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
   </si>
 </sst>
 </file>
@@ -357,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +444,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF16B6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -449,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -474,6 +519,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -882,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,19 +1627,104 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D36"/>
+      <c r="A36" s="24">
+        <v>34</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="26">
+        <v>7</v>
+      </c>
+      <c r="F36" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D37"/>
+      <c r="A37" s="24">
+        <v>35</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="26">
+        <v>7</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D38"/>
+      <c r="A38" s="24">
+        <v>36</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="26">
+        <v>7</v>
+      </c>
+      <c r="F38" s="25">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D39"/>
+      <c r="A39" s="24">
+        <v>37</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="26">
+        <v>7</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D40"/>
+      <c r="A40" s="24">
+        <v>38</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="26">
+        <v>7</v>
+      </c>
+      <c r="F40" s="25">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD671A-69B7-4CC4-88E0-6521A0A1ED6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6551C2-9D89-4A06-A0BF-32EAC6083514}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
+    <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
   <si>
     <t>CBM1000</t>
   </si>
@@ -62,202 +62,196 @@
     <t>CIT1010</t>
   </si>
   <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nombre Asignatura</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Abre la/s asignatura/s:</t>
+  </si>
+  <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 16, 17</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>MECÁNICA</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA Y GEOMETRÍA</t>
+  </si>
+  <si>
+    <t>CÁLCULO I</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t>CÁLCULO II</t>
+  </si>
+  <si>
+    <t>QUÍMICA</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN AVANZADA</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Prerreq</t>
+  </si>
+  <si>
     <t>CBM1005</t>
   </si>
   <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
     <t>CBM1006</t>
   </si>
   <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
     <t>CBF1001</t>
   </si>
   <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
     <t>CIT2000</t>
   </si>
   <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
     <t>CIT2100</t>
   </si>
   <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
     <t>CIT2204</t>
   </si>
   <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
     <t>CBF1002</t>
   </si>
   <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
     <t>CIT2001</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Nombre Asignatura</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Semestre</t>
-  </si>
-  <si>
-    <t>Abre la/s asignatura/s:</t>
-  </si>
-  <si>
-    <t>11, 17, 22</t>
-  </si>
-  <si>
-    <t>11, 12, 13, 16, 17</t>
-  </si>
-  <si>
-    <t>14, 15</t>
-  </si>
-  <si>
-    <t>18, 22, 28</t>
-  </si>
-  <si>
-    <t>24, 29, 31</t>
-  </si>
-  <si>
-    <t>29, 30</t>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
   </si>
   <si>
     <t>24, 25</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
-    <t>MECÁNICA</t>
-  </si>
-  <si>
-    <t>CALOR Y ONDAS</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD Y MAGNETISMO</t>
-  </si>
-  <si>
-    <t>ÁLGEBRA Y GEOMETRÍA</t>
-  </si>
-  <si>
-    <t>CÁLCULO I</t>
-  </si>
-  <si>
-    <t>ÁLGEBRA LINEAL</t>
-  </si>
-  <si>
-    <t>CÁLCULO II</t>
-  </si>
-  <si>
-    <t>ECUACIONES DIFERENCIALES</t>
-  </si>
-  <si>
-    <t>CÁLCULO III</t>
-  </si>
-  <si>
-    <t>QUÍMICA</t>
-  </si>
-  <si>
-    <t>PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>PROGRAMACIÓN AVANZADA</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS</t>
-  </si>
-  <si>
-    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>REDES DE DATOS</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
-  </si>
-  <si>
-    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
-  </si>
-  <si>
-    <t>6, 7</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7, 8</t>
-  </si>
-  <si>
-    <t>11, 12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Prerreq</t>
-  </si>
-  <si>
-    <t>Equivalencias</t>
-  </si>
-  <si>
-    <t>CIT2006</t>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
   </si>
   <si>
     <t>CIG1012</t>
   </si>
   <si>
-    <t>CIT2114</t>
-  </si>
-  <si>
-    <t>CII2750</t>
-  </si>
-  <si>
-    <t>OPTIMIZACIÓN</t>
-  </si>
-  <si>
-    <t>6, 12</t>
-  </si>
-  <si>
-    <t>CIT2107</t>
-  </si>
-  <si>
     <t>CII2000</t>
   </si>
   <si>
     <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
   </si>
   <si>
-    <t>CII2100</t>
-  </si>
-  <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>30, 32</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS I</t>
-  </si>
-  <si>
-    <t>15, 19</t>
-  </si>
-  <si>
-    <t>CIT2205</t>
-  </si>
-  <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
-    <t>BASES DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT2007</t>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
   </si>
   <si>
     <t>CIT2101</t>
@@ -269,9 +263,6 @@
     <t>16, 23</t>
   </si>
   <si>
-    <t>CIT2110</t>
-  </si>
-  <si>
     <t>CIT2003</t>
   </si>
   <si>
@@ -281,61 +272,91 @@
     <t>15, 25</t>
   </si>
   <si>
-    <t>CIT2010</t>
-  </si>
-  <si>
     <t>CIT2103</t>
   </si>
   <si>
     <t>SISTEMAS DIGITALES</t>
   </si>
   <si>
-    <t>CIT2109</t>
-  </si>
-  <si>
-    <t>FIC1002</t>
-  </si>
-  <si>
-    <t>7, 8, 33</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>CBM2000</t>
-  </si>
-  <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
-    <t>CIT2008</t>
-  </si>
-  <si>
-    <t>FIC1001</t>
-  </si>
-  <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
-    <t>34, 41</t>
-  </si>
-  <si>
-    <t>31, 34</t>
-  </si>
-  <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
-    <t>CIT2202</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>15, 16, 22</t>
-  </si>
-  <si>
-    <t>CIT2108</t>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>35, 42</t>
+  </si>
+  <si>
+    <t>31, 35</t>
+  </si>
+  <si>
+    <t>CIG1013</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>CIG1014</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL III</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>CIT2005</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>40, 42</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
   </si>
 </sst>
 </file>
@@ -375,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,18 +450,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDA3EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -485,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -513,15 +522,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,16 +555,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -576,8 +579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11630025" y="190499"/>
-          <a:ext cx="5667376" cy="1533526"/>
+          <a:off x="9334500" y="409573"/>
+          <a:ext cx="6057900" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -612,14 +615,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
+            <a:rPr lang="es-CL" sz="1400"/>
             <a:t>En uno</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-CL" sz="1100" baseline="0"/>
+            <a:rPr lang="es-CL" sz="1400" baseline="0"/>
             <a:t> de los Excel adjuntandos, correspondiente a tu malla academica, las asignaturas estan separadas por semestres y en colores. Para indicarle a la aplicación hasta que semestre ha cursado, deberá copiar desde el Excel de su malla las asignaturas que usted ha aprobado hasta este momento, y copiarlas en esta planilla.  Se deben copiar los elementos de TODAS las columnas, para que el código tenga el formato correcto para calcular sus asignaturas críticas.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
+          <a:endParaRPr lang="es-CL" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -629,7 +632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -927,11 +930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -942,30 +945,27 @@
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -984,9 +984,8 @@
       <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -994,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1005,9 +1004,8 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1015,10 +1013,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1026,9 +1024,8 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8">
         <v>9</v>
@@ -1047,9 +1044,8 @@
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1057,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8">
         <v>38</v>
@@ -1068,9 +1064,8 @@
       <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1078,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E8" s="18">
         <v>2</v>
@@ -1089,9 +1084,8 @@
       <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1099,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E9" s="18">
         <v>2</v>
@@ -1110,9 +1104,8 @@
       <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1120,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
@@ -1131,9 +1124,8 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1141,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E11" s="18">
         <v>2</v>
@@ -1152,20 +1144,19 @@
       <c r="F11" s="9">
         <v>4</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E12" s="18">
         <v>2</v>
@@ -1173,17 +1164,16 @@
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10">
         <v>18</v>
@@ -1192,22 +1182,21 @@
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E14" s="19">
         <v>3</v>
@@ -1215,38 +1204,36 @@
       <c r="F14" s="10">
         <v>7</v>
       </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10">
         <v>19</v>
@@ -1256,9 +1243,6 @@
       </c>
       <c r="F16" s="10">
         <v>9</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,22 +1250,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E17" s="19">
         <v>3</v>
       </c>
       <c r="F17" s="10">
         <v>9</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1289,43 +1270,39 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="20">
         <v>4</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="20"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E19" s="20">
         <v>4</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1333,10 +1310,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11">
         <v>23</v>
@@ -1345,31 +1322,27 @@
         <v>4</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="20"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E21" s="20">
         <v>4</v>
       </c>
       <c r="F21" s="11">
         <v>14</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,13 +1350,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E22" s="20">
         <v>4</v>
@@ -1391,17 +1364,16 @@
       <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>27</v>
@@ -1412,17 +1384,16 @@
       <c r="F23" s="11">
         <v>5</v>
       </c>
-      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="12">
         <v>29</v>
@@ -1431,31 +1402,27 @@
         <v>5</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="21"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E25" s="21">
         <v>5</v>
       </c>
       <c r="F25" s="23">
         <v>18</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1463,22 +1430,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E26" s="21">
         <v>5</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,22 +1450,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E27" s="21">
         <v>5</v>
       </c>
       <c r="F27" s="12">
         <v>19</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,13 +1470,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E28" s="21">
         <v>5</v>
@@ -1523,7 +1484,6 @@
       <c r="F28" s="12">
         <v>0</v>
       </c>
-      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1533,7 +1493,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>88</v>
@@ -1543,9 +1503,6 @@
       </c>
       <c r="F29" s="12">
         <v>21</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="J29" s="14"/>
     </row>
@@ -1554,22 +1511,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E30" s="22">
         <v>6</v>
       </c>
       <c r="F30" s="13">
         <v>12</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1577,22 +1531,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E31" s="22">
         <v>6</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,59 +1551,53 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="13">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="E32" s="22">
         <v>6</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="13">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="E33" s="22">
         <v>6</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="13">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="E34" s="22">
         <v>6</v>
@@ -1660,117 +1605,150 @@
       <c r="F34" s="13">
         <v>23</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="22">
+        <v>6</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>34</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="26">
+        <v>7</v>
+      </c>
+      <c r="F36" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>35</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="26">
+        <v>7</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>36</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="26">
+        <v>7</v>
+      </c>
+      <c r="F38" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>37</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="26">
+        <v>7</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>38</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="26">
+        <v>7</v>
+      </c>
+      <c r="F40" s="25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6551C2-9D89-4A06-A0BF-32EAC6083514}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EAC2D-1BFF-4E13-ACF6-5EFA304703B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -556,15 +556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -579,8 +579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9334500" y="409573"/>
-          <a:ext cx="6057900" cy="1981201"/>
+          <a:off x="9334499" y="409573"/>
+          <a:ext cx="6581775" cy="1704977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D063C45-7B46-40D4-B7D0-7F6743479BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E7687C-8CB7-4781-8695-63509446236D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -126,159 +126,189 @@
     <t>REDES DE DATOS</t>
   </si>
   <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM1006</t>
+  </si>
+  <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>CBM1005</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
     <t>24, 29, 31</t>
   </si>
   <si>
-    <t>CIT2204</t>
-  </si>
-  <si>
-    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
-  </si>
-  <si>
     <t>29, 30</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CBM1006</t>
-  </si>
-  <si>
-    <t>CÁLCULO III</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>35, 42</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>CIT2203</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
   </si>
   <si>
     <t>BASES DE DATOS</t>
   </si>
   <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
-    <t>CII1000</t>
-  </si>
-  <si>
-    <t>CONTABILIDAD Y COSTOS</t>
-  </si>
-  <si>
-    <t>CBM1005</t>
-  </si>
-  <si>
-    <t>ECUACIONES DIFERENCIALES</t>
-  </si>
-  <si>
-    <t>6, 7</t>
-  </si>
-  <si>
-    <t>11, 17, 22</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>CFG</t>
-  </si>
-  <si>
-    <t>18, 22, 28</t>
-  </si>
-  <si>
-    <t>CBF1001</t>
-  </si>
-  <si>
-    <t>CALOR Y ONDAS</t>
-  </si>
-  <si>
-    <t>7, 8</t>
-  </si>
-  <si>
-    <t>CBM2000</t>
-  </si>
-  <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
-    <t>CBF1002</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD Y MAGNETISMO</t>
-  </si>
-  <si>
-    <t>11, 12</t>
-  </si>
-  <si>
-    <t>CIT2001</t>
-  </si>
-  <si>
-    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>24, 25</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
-    <t>CII2750</t>
-  </si>
-  <si>
-    <t>OPTIMIZACIÓN</t>
-  </si>
-  <si>
-    <t>6, 12</t>
-  </si>
-  <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>30, 32</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS I</t>
-  </si>
-  <si>
-    <t>35, 42</t>
-  </si>
-  <si>
-    <t>15, 19</t>
-  </si>
-  <si>
     <t>31, 35</t>
   </si>
   <si>
-    <t>CII2000</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>CIT2202</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>15, 16, 22</t>
-  </si>
-  <si>
-    <t>CIT2101</t>
-  </si>
-  <si>
-    <t>SEÑALES Y SISTEMAS</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>16, 23</t>
-  </si>
-  <si>
     <t>CIT2003</t>
   </si>
   <si>
@@ -291,18 +321,6 @@
     <t>15, 25</t>
   </si>
   <si>
-    <t>CIT2103</t>
-  </si>
-  <si>
-    <t>SISTEMAS DIGITALES</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>CIT2005</t>
   </si>
   <si>
@@ -321,23 +339,44 @@
     <t>42</t>
   </si>
   <si>
-    <t>FIC1003</t>
-  </si>
-  <si>
-    <t>DERECHO EN INGENIERÍA</t>
-  </si>
-  <si>
-    <t>CIT2104</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE COMPUTADORES</t>
+    <t>CIT2004</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>CIT2105</t>
+  </si>
+  <si>
+    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
+  </si>
+  <si>
+    <t>CIT2201</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS II</t>
+  </si>
+  <si>
+    <t>24, 35, 36</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>Electivo Profesional</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -369,8 +408,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +470,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA3EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73B2B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -469,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -497,7 +560,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -970,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L38"/>
+  <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
@@ -1157,7 +1232,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
@@ -1191,10 +1266,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>14</v>
@@ -1211,10 +1286,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13" s="12">
         <v>18</v>
@@ -1223,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,13 +1306,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -1251,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>14</v>
@@ -1263,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,7 +1361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -1297,7 +1372,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
@@ -1306,35 +1381,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>14</v>
@@ -1343,18 +1418,18 @@
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" s="15">
         <v>23</v>
@@ -1363,21 +1438,21 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E21" s="16">
         <v>4</v>
@@ -1386,15 +1461,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>14</v>
@@ -1406,15 +1481,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1426,15 +1501,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D24" s="18">
         <v>29</v>
@@ -1443,21 +1518,21 @@
         <v>5</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E25" s="19">
         <v>5</v>
@@ -1465,40 +1540,40 @@
       <c r="F25" s="20">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E26" s="19">
         <v>5</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E27" s="19">
         <v>5</v>
@@ -1507,15 +1582,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>14</v>
@@ -1526,17 +1601,16 @@
       <c r="F28" s="18">
         <v>0</v>
       </c>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>14</v>
@@ -1548,15 +1622,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>14</v>
@@ -1565,47 +1639,47 @@
         <v>6</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E31" s="23">
         <v>6</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E32" s="23">
         <v>6</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,13 +1687,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E33" s="23">
         <v>6</v>
@@ -1633,13 +1707,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E34" s="26">
         <v>7</v>
@@ -1653,19 +1727,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E35" s="26">
         <v>7</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,13 +1747,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E36" s="26">
         <v>7</v>
@@ -1693,10 +1767,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -1713,10 +1787,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>14</v>
@@ -1726,6 +1800,186 @@
       </c>
       <c r="F38" s="25">
         <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>39</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="29">
+        <v>8</v>
+      </c>
+      <c r="F39" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>40</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="29">
+        <v>8</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>41</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="29">
+        <v>8</v>
+      </c>
+      <c r="F41" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <v>42</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="29">
+        <v>8</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>43</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="29">
+        <v>8</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>44</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="32">
+        <v>9</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>48</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="32">
+        <v>9</v>
+      </c>
+      <c r="F45" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="35">
+        <v>49</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="37">
+        <v>10</v>
+      </c>
+      <c r="F46" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="38">
+        <v>53</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="37">
+        <v>10</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E7687C-8CB7-4781-8695-63509446236D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E341291-7CAE-4CFD-B211-D1936D3781B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>CÁLCULO I</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
     <t>CBQ1000</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>CÁLCULO II</t>
   </si>
   <si>
-    <t>11, 12, 13, 16, 17</t>
-  </si>
-  <si>
     <t>CIT1010</t>
   </si>
   <si>
@@ -114,24 +108,9 @@
     <t>MECÁNICA</t>
   </si>
   <si>
-    <t>CIT2000</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT2100</t>
-  </si>
-  <si>
     <t>REDES DE DATOS</t>
   </si>
   <si>
-    <t>CIT2204</t>
-  </si>
-  <si>
-    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -141,9 +120,6 @@
     <t>CÁLCULO III</t>
   </si>
   <si>
-    <t>CIG1012</t>
-  </si>
-  <si>
     <t>CBM1005</t>
   </si>
   <si>
@@ -153,12 +129,6 @@
     <t>6, 7</t>
   </si>
   <si>
-    <t>11, 17, 22</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>CFG</t>
   </si>
   <si>
@@ -171,205 +141,55 @@
     <t>7, 8</t>
   </si>
   <si>
-    <t>CBM2000</t>
-  </si>
-  <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
-    <t>CIT2001</t>
-  </si>
-  <si>
-    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>24, 25</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
-    <t>CII2750</t>
-  </si>
-  <si>
-    <t>OPTIMIZACIÓN</t>
-  </si>
-  <si>
-    <t>6, 12</t>
-  </si>
-  <si>
-    <t>18, 22, 28</t>
-  </si>
-  <si>
-    <t>24, 29, 31</t>
-  </si>
-  <si>
-    <t>29, 30</t>
-  </si>
-  <si>
-    <t>CBF1002</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD Y MAGNETISMO</t>
-  </si>
-  <si>
-    <t>11, 12</t>
-  </si>
-  <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>30, 32</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS I</t>
-  </si>
-  <si>
-    <t>35, 42</t>
-  </si>
-  <si>
-    <t>15, 19</t>
-  </si>
-  <si>
-    <t>CII2000</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>CIT2202</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>15, 16, 22</t>
-  </si>
-  <si>
-    <t>CIT2101</t>
-  </si>
-  <si>
-    <t>SEÑALES Y SISTEMAS</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>16, 23</t>
-  </si>
-  <si>
-    <t>CIT2103</t>
-  </si>
-  <si>
-    <t>SISTEMAS DIGITALES</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>CII1000</t>
-  </si>
-  <si>
-    <t>CONTABILIDAD Y COSTOS</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>FIC1003</t>
-  </si>
-  <si>
-    <t>DERECHO EN INGENIERÍA</t>
-  </si>
-  <si>
-    <t>CIT2104</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE COMPUTADORES</t>
-  </si>
-  <si>
-    <t>CIT2203</t>
-  </si>
-  <si>
-    <t>GESTIÓN ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
-    <t>BASES DE DATOS</t>
-  </si>
-  <si>
-    <t>31, 35</t>
-  </si>
-  <si>
-    <t>CIT2003</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERATIVOS</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>15, 25</t>
-  </si>
-  <si>
-    <t>CIT2005</t>
-  </si>
-  <si>
-    <t>INGENIERÍA DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>40, 42</t>
-  </si>
-  <si>
-    <t>CIT2102</t>
-  </si>
-  <si>
-    <t>COMUNICACIONES DIGITALES</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>CIT2004</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SISTEMAS</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>CIT2105</t>
-  </si>
-  <si>
-    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
-  </si>
-  <si>
-    <t>CIT2201</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS II</t>
-  </si>
-  <si>
-    <t>24, 35, 36</t>
-  </si>
-  <si>
-    <t>CIT33XX</t>
-  </si>
-  <si>
-    <t>Electivo Profesional</t>
-  </si>
-  <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>7, 8, 28</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11, 22</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11, 12, 16, 39</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>13, 17</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17, 18</t>
+  </si>
+  <si>
+    <t>17, 18, 22</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>CIT2006</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
+  </si>
+  <si>
+    <t>19, 31</t>
+  </si>
+  <si>
+    <t>CIT2114</t>
+  </si>
+  <si>
+    <t>23, 24, 29, 35</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I47"/>
+  <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,8 +917,8 @@
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
+      <c r="F3" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,13 +932,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,19 +946,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,19 +966,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
-        <v>9</v>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,19 +986,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6">
-        <v>38</v>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,19 +1006,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
+      <c r="F8" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,19 +1026,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="9">
-        <v>2</v>
+      <c r="F9" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,19 +1046,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F10" s="9">
-        <v>2</v>
+      <c r="F10" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,19 +1066,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="9">
-        <v>4</v>
+      <c r="F11" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,19 +1086,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
+      <c r="F12" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,19 +1106,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="12">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="13">
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,19 +1126,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="12">
-        <v>7</v>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,19 +1146,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E15" s="13">
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,19 +1166,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="12">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E16" s="13">
         <v>3</v>
       </c>
-      <c r="F16" s="12">
-        <v>9</v>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1366,621 +1186,237 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
       </c>
-      <c r="F17" s="12">
-        <v>9</v>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>16</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="16">
-        <v>4</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>17</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="16">
-        <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="15">
-        <v>23</v>
-      </c>
-      <c r="E20" s="16">
-        <v>4</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="16">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15">
-        <v>14</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="16">
-        <v>4</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="15">
-        <v>27</v>
-      </c>
-      <c r="E23" s="16">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15">
-        <v>5</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>22</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="18">
-        <v>29</v>
-      </c>
-      <c r="E24" s="19">
-        <v>5</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="19">
-        <v>5</v>
-      </c>
-      <c r="F25" s="20">
-        <v>18</v>
-      </c>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="19">
-        <v>5</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="19">
-        <v>5</v>
-      </c>
-      <c r="F27" s="18">
-        <v>19</v>
-      </c>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>26</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="19">
-        <v>5</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="23">
-        <v>6</v>
-      </c>
-      <c r="F29" s="22">
-        <v>12</v>
-      </c>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>29</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="23">
-        <v>6</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>74</v>
-      </c>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="23">
-        <v>6</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
-        <v>31</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="23">
-        <v>6</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
-        <v>32</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="23">
-        <v>6</v>
-      </c>
-      <c r="F33" s="22">
-        <v>23</v>
-      </c>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>34</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="26">
-        <v>7</v>
-      </c>
-      <c r="F34" s="25">
-        <v>2</v>
-      </c>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>35</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="26">
-        <v>7</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>36</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="26">
-        <v>7</v>
-      </c>
-      <c r="F36" s="25">
-        <v>30</v>
-      </c>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>37</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="26">
-        <v>7</v>
-      </c>
-      <c r="F37" s="25">
-        <v>0</v>
-      </c>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
-        <v>38</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="26">
-        <v>7</v>
-      </c>
-      <c r="F38" s="25">
-        <v>32</v>
-      </c>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
-        <v>39</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="29">
-        <v>8</v>
-      </c>
-      <c r="F39" s="28">
-        <v>5</v>
-      </c>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
-        <v>40</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="29">
-        <v>8</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>106</v>
-      </c>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
-        <v>41</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="29">
-        <v>8</v>
-      </c>
-      <c r="F41" s="28">
-        <v>31</v>
-      </c>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
-        <v>42</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="29">
-        <v>8</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>111</v>
-      </c>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
-        <v>43</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="29">
-        <v>8</v>
-      </c>
-      <c r="F43" s="28">
-        <v>0</v>
-      </c>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>44</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="32">
-        <v>9</v>
-      </c>
-      <c r="F44" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
-        <v>48</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="32">
-        <v>9</v>
-      </c>
-      <c r="F45" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
-        <v>49</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="37">
-        <v>10</v>
-      </c>
-      <c r="F46" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
-        <v>53</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="37">
-        <v>10</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>114</v>
-      </c>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E341291-7CAE-4CFD-B211-D1936D3781B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6EEF7D-5141-4BC9-AF59-29779DE7DC16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -108,12 +108,6 @@
     <t>MECÁNICA</t>
   </si>
   <si>
-    <t>REDES DE DATOS</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>CBM1006</t>
   </si>
   <si>
@@ -141,55 +135,61 @@
     <t>7, 8</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7, 8, 28</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11, 22</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11, 12, 16, 39</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>13, 17</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>17, 18</t>
-  </si>
-  <si>
-    <t>17, 18, 22</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>CIT2006</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
-  </si>
-  <si>
-    <t>19, 31</t>
-  </si>
-  <si>
-    <t>CIT2114</t>
-  </si>
-  <si>
-    <t>23, 24, 29, 35</t>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 16, 17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIG1013</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +281,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF949A4C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF16B6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -383,16 +377,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -569,7 +560,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -868,10 +859,10 @@
   <dimension ref="A2:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -917,8 +908,8 @@
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>38</v>
+      <c r="F3" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,13 +923,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>38</v>
+      <c r="F4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,8 +948,8 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>38</v>
+      <c r="F5" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,14 +962,14 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
+      <c r="D6" s="6">
+        <v>9</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
+      <c r="F6" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,14 +982,14 @@
       <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
+      <c r="D7" s="6">
+        <v>38</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
+      <c r="F7" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,13 +1003,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>42</v>
+      <c r="F8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,13 +1023,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>44</v>
+      <c r="F9" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,13 +1043,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>44</v>
+      <c r="F10" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,8 +1068,8 @@
       <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>46</v>
+      <c r="F11" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>13</v>
@@ -1097,8 +1088,8 @@
       <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>38</v>
+      <c r="F12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,19 +1097,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="D13" s="12">
+        <v>18</v>
       </c>
       <c r="E13" s="13">
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,19 +1117,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>28</v>
+      <c r="F14" s="12">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,100 +1137,140 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E15" s="13">
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="14">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="15">
+        <v>23</v>
+      </c>
+      <c r="E16" s="16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>20</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="15">
+        <v>27</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>22</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18">
+        <v>29</v>
+      </c>
+      <c r="E19" s="19">
+        <v>5</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>23</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>27</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="13">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="C21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="D21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="13">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
+      <c r="E21" s="19">
+        <v>5</v>
+      </c>
+      <c r="F21" s="18">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
@@ -1291,12 +1322,12 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
@@ -1323,100 +1354,100 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="28"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="28"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="28"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="34"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="39"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6EEF7D-5141-4BC9-AF59-29779DE7DC16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCA03E-21F9-4A05-A0B3-F27DC3279F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -190,6 +190,126 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>CIT2000</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2100</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>35, 42</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>31, 35</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>CIT2003</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>15, 25</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>CIG1014</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL III</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -560,7 +680,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -859,10 +979,10 @@
   <dimension ref="A2:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1153,229 +1273,405 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>18</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="15">
-        <v>23</v>
-      </c>
-      <c r="E16" s="16">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>43</v>
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="12">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>20</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="15">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="15">
+        <v>23</v>
+      </c>
+      <c r="E20" s="16">
+        <v>4</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="16">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="15">
+        <v>27</v>
+      </c>
+      <c r="E23" s="16">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D24" s="18">
         <v>29</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E24" s="19">
         <v>5</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E25" s="19">
         <v>5</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F25" s="20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="19">
+        <v>5</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5</v>
+      </c>
+      <c r="F27" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="19">
+        <v>5</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>27</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E29" s="19">
         <v>5</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F29" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-    </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="22"/>
+      <c r="A30" s="21">
+        <v>28</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="23">
+        <v>6</v>
+      </c>
+      <c r="F30" s="22">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
+      <c r="A31" s="21">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="23">
+        <v>6</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="22"/>
+      <c r="A32" s="21">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="23">
+        <v>6</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="21">
+        <v>31</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="23">
+        <v>6</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
+      <c r="A34" s="21">
+        <v>32</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="23">
+        <v>6</v>
+      </c>
+      <c r="F34" s="22">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="22"/>
+      <c r="A35" s="21">
+        <v>33</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="23">
+        <v>6</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCA03E-21F9-4A05-A0B3-F27DC3279F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BDE9B-DED1-4DE6-8D76-7541E4E9CEE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>QUÍMICA</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>CIT1000</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>7, 8</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
     <t>11, 17, 22</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>11, 12</t>
   </si>
   <si>
-    <t>CIG1012</t>
-  </si>
-  <si>
     <t>INGLÉS GENERAL I</t>
   </si>
   <si>
@@ -183,15 +174,9 @@
     <t>30, 32</t>
   </si>
   <si>
-    <t>CIG1013</t>
-  </si>
-  <si>
     <t>INGLÉS GENERAL II</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>CIT2000</t>
   </si>
   <si>
@@ -240,9 +225,6 @@
     <t>PROYECTO EN TICS I</t>
   </si>
   <si>
-    <t>35, 42</t>
-  </si>
-  <si>
     <t>15, 19</t>
   </si>
   <si>
@@ -252,9 +234,6 @@
     <t>BASES DE DATOS</t>
   </si>
   <si>
-    <t>31, 35</t>
-  </si>
-  <si>
     <t>CII2000</t>
   </si>
   <si>
@@ -276,47 +255,110 @@
     <t>SEÑALES Y SISTEMAS</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>16, 23</t>
   </si>
   <si>
-    <t>CIT2003</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERATIVOS</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>15, 25</t>
-  </si>
-  <si>
     <t>CIT2103</t>
   </si>
   <si>
     <t>SISTEMAS DIGITALES</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>CIG1014</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL III</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>CIT2005</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>CIT2203</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIT2004</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>CIT2201</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS II</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>Electivo Profesional</t>
+  </si>
+  <si>
+    <t>CIT34XX</t>
+  </si>
+  <si>
+    <t>CIT3200</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE PROYECTOS TIC</t>
+  </si>
+  <si>
+    <t>7, 8, 33</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>FIC1001</t>
+  </si>
+  <si>
+    <t>34, 41</t>
+  </si>
+  <si>
+    <t>31, 34</t>
+  </si>
+  <si>
+    <t>FIC1002</t>
+  </si>
+  <si>
+    <t>39, 41</t>
+  </si>
+  <si>
+    <t>24, 34, 35</t>
+  </si>
+  <si>
+    <t>33, 41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -347,12 +389,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -418,7 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF73B2B5"/>
+        <fgColor rgb="FFF16B6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -497,13 +533,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -680,7 +712,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -976,13 +1008,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I44"/>
+  <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1043,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1063,7 +1095,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1077,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="6">
         <v>9</v>
@@ -1097,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="6">
         <v>38</v>
@@ -1117,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
@@ -1137,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
@@ -1157,13 +1189,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
@@ -1177,13 +1209,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="10">
         <v>2</v>
@@ -1197,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E12" s="10">
         <v>2</v>
@@ -1217,10 +1249,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="12">
         <v>18</v>
@@ -1229,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,13 +1269,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -1257,19 +1289,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E15" s="13">
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,10 +1309,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="12">
         <v>19</v>
@@ -1297,13 +1329,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
@@ -1317,19 +1349,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,19 +1369,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E19" s="16">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1357,10 +1389,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="15">
         <v>23</v>
@@ -1369,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1377,13 +1409,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E21" s="16">
         <v>4</v>
@@ -1397,13 +1429,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E22" s="16">
         <v>4</v>
@@ -1417,10 +1449,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1437,10 +1469,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="18">
         <v>29</v>
@@ -1449,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1457,13 +1489,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" s="19">
         <v>5</v>
@@ -1478,19 +1510,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E26" s="19">
         <v>5</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1498,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E27" s="19">
         <v>5</v>
@@ -1518,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E28" s="19">
         <v>5</v>
@@ -1538,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1558,13 +1590,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E30" s="23">
         <v>6</v>
@@ -1578,19 +1610,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E31" s="23">
         <v>6</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1598,152 +1630,320 @@
         <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="D32" s="22">
+        <v>35</v>
       </c>
       <c r="E32" s="23">
         <v>6</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="D33" s="22">
+        <v>37</v>
       </c>
       <c r="E33" s="23">
         <v>6</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>33</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="31">
+        <v>46</v>
+      </c>
+      <c r="E34" s="32">
+        <v>7</v>
+      </c>
+      <c r="F34" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>34</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="32">
+        <v>7</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="31">
+        <v>41</v>
+      </c>
+      <c r="E36" s="32">
+        <v>7</v>
+      </c>
+      <c r="F36" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>36</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="32">
+        <v>7</v>
+      </c>
+      <c r="F37" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>37</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="D38" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="32">
+        <v>7</v>
+      </c>
+      <c r="F38" s="31">
         <v>32</v>
       </c>
-      <c r="B34" s="21" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>38</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C39" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D39" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="26">
+        <v>8</v>
+      </c>
+      <c r="F39" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="23">
-        <v>6</v>
-      </c>
-      <c r="F34" s="22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>33</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="C40" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D40" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="26">
+        <v>8</v>
+      </c>
+      <c r="F40" s="25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>41</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="23">
-        <v>6</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="C41" s="24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28"/>
+      <c r="D41" s="25">
+        <v>46</v>
+      </c>
+      <c r="E41" s="26">
+        <v>8</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="31"/>
+      <c r="A42" s="24">
+        <v>42</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="26">
+        <v>8</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
+      <c r="A43" s="27">
+        <v>43</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="29">
+        <v>9</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="27">
+        <v>44</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="29">
+        <v>9</v>
+      </c>
+      <c r="F44" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>45</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="29">
+        <v>9</v>
+      </c>
+      <c r="F45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>46</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="28">
+        <v>51</v>
+      </c>
+      <c r="E46" s="29">
+        <v>9</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>47</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="29">
+        <v>9</v>
+      </c>
+      <c r="F47" s="28">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F17988A-3B05-4DC7-B7DE-494396037800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEB250-E5C4-45F2-9559-2A080E6908D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,14 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -52,21 +48,189 @@
   </si>
   <si>
     <t>Prerreq</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t>Mi Malla Curricular 
 (modificar el año de la
 derecha) -&gt;</t>
+  </si>
+  <si>
+    <t>CBM1000</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA Y GEOMETRÍA</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CBM1001</t>
+  </si>
+  <si>
+    <t>CÁLCULO I</t>
+  </si>
+  <si>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>CBQ1000</t>
+  </si>
+  <si>
+    <t>QUÍMICA</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>CIT1000</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>FIC1000</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CBM1003</t>
+  </si>
+  <si>
+    <t>CÁLCULO II</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 16, 17</t>
+  </si>
+  <si>
+    <t>CIT1010</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN AVANZADA</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>CBM1002</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t>11, 22</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CBF1000</t>
+  </si>
+  <si>
+    <t>MECÁNICA</t>
+  </si>
+  <si>
+    <t>13, 17</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CIT2000</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2100</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM1006</t>
+  </si>
+  <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>17, 18, 22</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>INGLÉS I</t>
+  </si>
+  <si>
+    <t>CIT2007</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>25, 37, 42</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CIT2008</t>
+  </si>
+  <si>
+    <t>DESARROLLO WEB Y MÓVIL</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>CBM1005</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>17, 18</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,8 +275,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +307,32 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF8BDBCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFA7D00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,6 +370,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -181,7 +392,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -192,12 +403,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Notas" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,10 +910,10 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -700,15 +923,15 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,96 +951,418 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15">
+        <v>19</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3</v>
+      </c>
+      <c r="F12" s="15">
+        <v>9</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>9</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>16</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18">
+        <v>27</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18">
+        <v>5</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>19</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="5"/>
       <c r="F25" s="5"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEB250-E5C4-45F2-9559-2A080E6908D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C5FFD-0DEE-4774-A218-993C15DEA6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -70,18 +70,12 @@
     <t>CÁLCULO I</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
     <t>CBQ1000</t>
   </si>
   <si>
     <t>QUÍMICA</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>CIT1000</t>
   </si>
   <si>
@@ -118,24 +112,12 @@
     <t>ÁLGEBRA LINEAL</t>
   </si>
   <si>
-    <t>11, 22</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CBF1000</t>
   </si>
   <si>
     <t>MECÁNICA</t>
   </si>
   <si>
-    <t>13, 17</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>CIT2000</t>
   </si>
   <si>
@@ -169,61 +151,112 @@
     <t>CÁLCULO III</t>
   </si>
   <si>
-    <t>17, 18, 22</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
-  </si>
-  <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
-    <t>CIT2007</t>
-  </si>
-  <si>
     <t>BASES DE DATOS</t>
   </si>
   <si>
-    <t>25, 37, 42</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>CIT2008</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB Y MÓVIL</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CII1000</t>
-  </si>
-  <si>
-    <t>CONTABILIDAD Y COSTOS</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>CBM1005</t>
   </si>
   <si>
     <t>ECUACIONES DIFERENCIALES</t>
   </si>
   <si>
-    <t>17, 18</t>
-  </si>
-  <si>
     <t>6, 7</t>
   </si>
   <si>
-    <t>2018</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>7, 8, 33</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>FIC1001</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>34, 41</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>31, 34</t>
   </si>
 </sst>
 </file>
@@ -278,13 +311,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,25 +343,61 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF8BDBCE"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BDBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF949A4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF16B6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA3EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73B2B5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,29 +461,47 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -508,13 +595,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>419040</xdr:colOff>
+      <xdr:colOff>257115</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
@@ -531,8 +618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13890960" y="182880"/>
-          <a:ext cx="6753240" cy="1289160"/>
+          <a:off x="11125200" y="600075"/>
+          <a:ext cx="5295840" cy="1342500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,15 +1010,15 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,464 +1038,706 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="14">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="F13" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+      <c r="F14" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="14">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+      <c r="F16" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
+      <c r="F17" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="17">
+        <v>23</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="18">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="17">
+        <v>27</v>
+      </c>
+      <c r="E22" s="18">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="20">
+        <v>29</v>
+      </c>
+      <c r="E23" s="21">
+        <v>5</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="21">
+        <v>5</v>
+      </c>
+      <c r="F24" s="22">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="21">
+        <v>5</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="21">
+        <v>5</v>
+      </c>
+      <c r="F26" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="21">
+        <v>5</v>
+      </c>
+      <c r="F27" s="20">
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="15">
-        <v>19</v>
-      </c>
-      <c r="E12" s="16">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15">
-        <v>9</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>15</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15">
-        <v>9</v>
-      </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="19">
-        <v>4</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>12</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="19">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>21</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="18">
-        <v>27</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4</v>
-      </c>
-      <c r="F16" s="18">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>19</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="19">
-        <v>4</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>20</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="19">
-        <v>4</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>28</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="19">
-        <v>6</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>11</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="19">
-        <v>3</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="36"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="36"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="36"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="36"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C5FFD-0DEE-4774-A218-993C15DEA6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0710A33-01C4-4F06-AE30-043A28384485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -133,27 +133,12 @@
     <t>24, 29, 31</t>
   </si>
   <si>
-    <t>CIT2204</t>
-  </si>
-  <si>
-    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
-  </si>
-  <si>
-    <t>29, 30</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>CBM1006</t>
   </si>
   <si>
     <t>CÁLCULO III</t>
   </si>
   <si>
-    <t>BASES DE DATOS</t>
-  </si>
-  <si>
     <t>CBM1005</t>
   </si>
   <si>
@@ -163,15 +148,6 @@
     <t>6, 7</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>7, 8, 33</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>11, 17, 22</t>
   </si>
   <si>
@@ -193,70 +169,13 @@
     <t>7, 8</t>
   </si>
   <si>
-    <t>CBM2000</t>
-  </si>
-  <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
-    <t>CBF1002</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD Y MAGNETISMO</t>
-  </si>
-  <si>
-    <t>11, 12</t>
-  </si>
-  <si>
-    <t>CIT2001</t>
-  </si>
-  <si>
-    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>24, 25</t>
-  </si>
-  <si>
-    <t>FIC1001</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
-    <t>CII2750</t>
-  </si>
-  <si>
-    <t>OPTIMIZACIÓN</t>
-  </si>
-  <si>
-    <t>6, 12</t>
-  </si>
-  <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>30, 32</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS I</t>
-  </si>
-  <si>
-    <t>34, 41</t>
-  </si>
-  <si>
-    <t>15, 19</t>
-  </si>
-  <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
-    <t>31, 34</t>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
@@ -996,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
@@ -1089,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
@@ -1149,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="12">
         <v>2</v>
@@ -1189,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1223,13 +1142,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="12">
         <v>2</v>
@@ -1243,10 +1162,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" s="14">
         <v>18</v>
@@ -1255,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,13 +1182,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E14" s="15">
         <v>3</v>
@@ -1283,19 +1202,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="15">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,205 +1258,85 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="18">
-        <v>4</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="18">
-        <v>4</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="17">
-        <v>23</v>
-      </c>
-      <c r="E20" s="18">
-        <v>4</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="18">
-        <v>4</v>
-      </c>
-      <c r="F21" s="17">
-        <v>14</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="17">
-        <v>27</v>
-      </c>
-      <c r="E22" s="18">
-        <v>4</v>
-      </c>
-      <c r="F22" s="17">
-        <v>5</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="20">
-        <v>29</v>
-      </c>
-      <c r="E23" s="21">
-        <v>5</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="21">
-        <v>5</v>
-      </c>
-      <c r="F24" s="22">
-        <v>18</v>
-      </c>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="21">
-        <v>5</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>25</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="21">
-        <v>5</v>
-      </c>
-      <c r="F26" s="20">
-        <v>19</v>
-      </c>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="21">
-        <v>5</v>
-      </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\Protipo TdR - Alfa-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0710A33-01C4-4F06-AE30-043A28384485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A1D7B-1747-4F59-BBEB-F39745CD3835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,9 @@
     <t>QUÍMICA</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>CIT1000</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>CÁLCULO II</t>
   </si>
   <si>
-    <t>11, 12, 13, 16, 17</t>
-  </si>
-  <si>
     <t>CIT1010</t>
   </si>
   <si>
@@ -112,25 +112,37 @@
     <t>ÁLGEBRA LINEAL</t>
   </si>
   <si>
+    <t>11, 22</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>CBF1000</t>
   </si>
   <si>
     <t>MECÁNICA</t>
   </si>
   <si>
-    <t>CIT2000</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT2100</t>
+    <t>13, 17</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>REDES DE DATOS</t>
   </si>
   <si>
-    <t>24, 29, 31</t>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>CBM1006</t>
@@ -139,50 +151,128 @@
     <t>CÁLCULO III</t>
   </si>
   <si>
+    <t>17, 18, 22</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>CIT2007</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>25, 37, 42</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CIT2008</t>
+  </si>
+  <si>
+    <t>DESARROLLO WEB Y MÓVIL</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>CBM1005</t>
   </si>
   <si>
     <t>ECUACIONES DIFERENCIALES</t>
   </si>
   <si>
+    <t>17, 18</t>
+  </si>
+  <si>
     <t>6, 7</t>
   </si>
   <si>
-    <t>11, 17, 22</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7, 8, 28</t>
+  </si>
+  <si>
+    <t>11, 12, 16, 39</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>CFG</t>
   </si>
   <si>
-    <t>18, 22, 28</t>
-  </si>
-  <si>
     <t>CBF1001</t>
   </si>
   <si>
     <t>CALOR Y ONDAS</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>7, 8</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2018</t>
+    <t>CIT2006</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
+  </si>
+  <si>
+    <t>19, 31</t>
+  </si>
+  <si>
+    <t>CIT2114</t>
+  </si>
+  <si>
+    <t>23, 24, 29, 35</t>
+  </si>
+  <si>
+    <t>23, 42</t>
+  </si>
+  <si>
+    <t>CIT2107</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>8, 11, 12</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,13 +320,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +360,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF8BDBCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFA7D00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,42 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BDBCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF949A4C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF16B6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDA3EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF73B2B5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,47 +466,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -514,13 +586,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>257115</xdr:colOff>
+      <xdr:colOff>419040</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
@@ -537,8 +609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11125200" y="600075"/>
-          <a:ext cx="5295840" cy="1342500"/>
+          <a:off x="13890960" y="182880"/>
+          <a:ext cx="6753240" cy="1289160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,15 +1001,15 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -957,586 +1029,517 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="F3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="20">
+        <v>3</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="20">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="23">
+        <v>4</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="23">
+        <v>4</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="23">
+        <v>4</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="23">
+        <v>4</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="D22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="F22" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="B23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="14">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15">
-        <v>3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="15">
-        <v>3</v>
-      </c>
-      <c r="F14" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="14">
-        <v>19</v>
-      </c>
-      <c r="E16" s="15">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="15">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="27"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="36"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="36"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="36"/>
+      <c r="F23" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\Protipo TdR - Alfa-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A1D7B-1747-4F59-BBEB-F39745CD3835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402E9C7D-D84A-4F6B-9043-255E39ECA1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="1380" windowWidth="18000" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -85,12 +85,6 @@
     <t>PROGRAMACIÓN</t>
   </si>
   <si>
-    <t>FIC1000</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
-  </si>
-  <si>
     <t>CBM1003</t>
   </si>
   <si>
@@ -130,69 +124,9 @@
     <t>2</t>
   </si>
   <si>
-    <t>REDES DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT2204</t>
-  </si>
-  <si>
-    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
-  </si>
-  <si>
-    <t>29, 30</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CBM1006</t>
-  </si>
-  <si>
-    <t>CÁLCULO III</t>
-  </si>
-  <si>
-    <t>17, 18, 22</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
-  </si>
-  <si>
-    <t>CIT2007</t>
-  </si>
-  <si>
-    <t>BASES DE DATOS</t>
-  </si>
-  <si>
-    <t>25, 37, 42</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>CIT2008</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB Y MÓVIL</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>CBM1005</t>
-  </si>
-  <si>
-    <t>ECUACIONES DIFERENCIALES</t>
-  </si>
-  <si>
-    <t>17, 18</t>
-  </si>
-  <si>
-    <t>6, 7</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -209,63 +143,6 @@
   </si>
   <si>
     <t>CFG</t>
-  </si>
-  <si>
-    <t>CBF1001</t>
-  </si>
-  <si>
-    <t>CALOR Y ONDAS</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>7, 8</t>
-  </si>
-  <si>
-    <t>CIT2006</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
-  </si>
-  <si>
-    <t>19, 31</t>
-  </si>
-  <si>
-    <t>CIT2114</t>
-  </si>
-  <si>
-    <t>23, 24, 29, 35</t>
-  </si>
-  <si>
-    <t>23, 42</t>
-  </si>
-  <si>
-    <t>CIT2107</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>8, 11, 12</t>
-  </si>
-  <si>
-    <t>CBF1002</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD Y MAGNETISMO</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>11, 12</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
 </sst>
 </file>
@@ -334,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,12 +254,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,18 +261,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +325,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -480,19 +339,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -593,7 +445,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>419040</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -985,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,15 +853,15 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1029,471 +881,258 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>54</v>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>54</v>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>54</v>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>54</v>
+      <c r="F6" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>57</v>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="20">
-        <v>3</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="20">
-        <v>3</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="20">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="20">
-        <v>3</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="23">
-        <v>4</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
-        <v>17</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="23">
-        <v>4</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="23">
-        <v>4</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="23">
-        <v>4</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="23">
-        <v>4</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>21</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="23">
-        <v>4</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -1504,42 +1143,6 @@
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402E9C7D-D84A-4F6B-9043-255E39ECA1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B61AF-521C-493B-947C-E7CFD40DA685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1380" windowWidth="18000" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,9 @@
     <t>CÁLCULO I</t>
   </si>
   <si>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
     <t>CBQ1000</t>
   </si>
   <si>
@@ -85,12 +88,21 @@
     <t>PROGRAMACIÓN</t>
   </si>
   <si>
+    <t>FIC1000</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
+  </si>
+  <si>
     <t>CBM1003</t>
   </si>
   <si>
     <t>CÁLCULO II</t>
   </si>
   <si>
+    <t>11, 12, 13, 16, 17</t>
+  </si>
+  <si>
     <t>CIT1010</t>
   </si>
   <si>
@@ -124,32 +136,101 @@
     <t>2</t>
   </si>
   <si>
+    <t>CIT2000</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2100</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM1006</t>
+  </si>
+  <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>17, 18, 22</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>INGLÉS I</t>
+  </si>
+  <si>
+    <t>CIT2007</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>25, 37, 42</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CIT2008</t>
+  </si>
+  <si>
+    <t>DESARROLLO WEB Y MÓVIL</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>CBM1005</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>17, 18</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
     <t>2020</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7, 8, 28</t>
-  </si>
-  <si>
-    <t>11, 12, 16, 39</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CFG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,16 +283,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,14 +327,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFA7D00"/>
       </patternFill>
     </fill>
   </fills>
@@ -325,7 +392,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -336,15 +403,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -445,7 +515,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>419040</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -837,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,15 +923,15 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,258 +951,418 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="16">
         <v>2</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15">
+        <v>19</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3</v>
+      </c>
+      <c r="F12" s="15">
+        <v>9</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>9</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>16</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18">
+        <v>27</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18">
+        <v>5</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>19</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -1143,6 +1373,42 @@
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\Protipo TdR - Alfa-v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B61AF-521C-493B-947C-E7CFD40DA685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C00C086-2E3F-44DA-9C8C-3F68B73D7A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Semestre</t>
-  </si>
-  <si>
-    <t>Prerreq</t>
   </si>
   <si>
     <t>Mi Malla Curricular 
@@ -70,9 +67,6 @@
     <t>CÁLCULO I</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
     <t>CBQ1000</t>
   </si>
   <si>
@@ -118,24 +112,12 @@
     <t>ÁLGEBRA LINEAL</t>
   </si>
   <si>
-    <t>11, 22</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CBF1000</t>
   </si>
   <si>
     <t>MECÁNICA</t>
   </si>
   <si>
-    <t>13, 17</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>CIT2000</t>
   </si>
   <si>
@@ -160,83 +142,249 @@
     <t>29, 30</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>CBM1006</t>
   </si>
   <si>
     <t>CÁLCULO III</t>
   </si>
   <si>
-    <t>17, 18, 22</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
-  </si>
-  <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
-    <t>CIT2007</t>
-  </si>
-  <si>
     <t>BASES DE DATOS</t>
   </si>
   <si>
-    <t>25, 37, 42</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>CIT2008</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB Y MÓVIL</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>CII1000</t>
   </si>
   <si>
     <t>CONTABILIDAD Y COSTOS</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>CBM1005</t>
   </si>
   <si>
     <t>ECUACIONES DIFERENCIALES</t>
   </si>
   <si>
-    <t>17, 18</t>
-  </si>
-  <si>
-    <t>6, 7</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>7, 8, 33</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>FIC1001</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>34, 41</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>31, 34</t>
+  </si>
+  <si>
+    <t>FIC1002</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>CIT2003</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>CIT2005</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>39, 41</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>CIT2203</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIT2004</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>CIT2105</t>
+  </si>
+  <si>
+    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
+  </si>
+  <si>
+    <t>CIT2201</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS II</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>Electivo Profesional</t>
+  </si>
+  <si>
+    <t>CIT34XX</t>
+  </si>
+  <si>
+    <t>CIT3200</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE PROYECTOS TIC</t>
+  </si>
+  <si>
+    <t>CFG2310</t>
+  </si>
+  <si>
+    <t>LAS ELECCIONES POLÍTICAS EN CHILE</t>
+  </si>
+  <si>
+    <t>CIT3349</t>
+  </si>
+  <si>
+    <t>GRAFOS Y ALGORITMOS</t>
+  </si>
+  <si>
+    <t>CIT3417</t>
+  </si>
+  <si>
+    <t>TECNOLOGÍAS INALÁMBRICAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -278,13 +426,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,25 +458,55 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF8BDBCE"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BDBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF949A4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF16B6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA3EF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,40 +564,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{692B7B44-3E88-491A-943D-139A7AC579AF}"/>
     <cellStyle name="Notas" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,13 +709,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>419040</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9000</xdr:rowOff>
@@ -907,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,18 +1122,17 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,468 +1148,806 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14">
+        <v>19</v>
+      </c>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="17">
+        <v>23</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>21</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="17">
+        <v>27</v>
+      </c>
+      <c r="E21" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>22</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="20">
+        <v>29</v>
+      </c>
+      <c r="E22" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>23</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="21">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>24</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>25</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>27</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>28</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>29</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>30</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="24">
+        <v>35</v>
+      </c>
+      <c r="E29" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>31</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="24">
+        <v>40</v>
+      </c>
+      <c r="E30" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>32</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="24">
+        <v>37</v>
+      </c>
+      <c r="E31" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>33</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="27">
+        <v>46</v>
+      </c>
+      <c r="E32" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>34</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>35</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="27">
+        <v>41</v>
+      </c>
+      <c r="E34" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>36</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>37</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>38</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>39</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>40</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>41</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="30">
+        <v>46</v>
+      </c>
+      <c r="E40" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>43</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>44</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>46</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="33">
+        <v>51</v>
+      </c>
+      <c r="E43" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>47</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
+        <v>48</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="37">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="35">
+        <v>49</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="35">
+        <v>50</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="35">
+        <v>10</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="E48" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="38">
+        <v>26</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="40">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="15">
-        <v>19</v>
-      </c>
-      <c r="E12" s="16">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15">
-        <v>9</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>15</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15">
-        <v>9</v>
-      </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="19">
-        <v>4</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>12</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="19">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>21</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="18">
-        <v>27</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4</v>
-      </c>
-      <c r="F16" s="18">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>19</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="19">
-        <v>4</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>20</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="19">
-        <v>4</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>28</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="19">
-        <v>6</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>11</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="19">
-        <v>3</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\Protipo TdR - Alfa-v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C00C086-2E3F-44DA-9C8C-3F68B73D7A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81CB1F9-14F3-488F-9B94-6369729A206A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1245" windowWidth="18000" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Semestre</t>
+  </si>
+  <si>
+    <t>Prerreq</t>
   </si>
   <si>
     <t>Mi Malla Curricular 
@@ -73,82 +76,235 @@
     <t>QUÍMICA</t>
   </si>
   <si>
+    <t>CIT1000</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>FIC1000</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CBM1003</t>
+  </si>
+  <si>
+    <t>CÁLCULO II</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 16, 17</t>
+  </si>
+  <si>
+    <t>CIT1010</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN AVANZADA</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>CBM1002</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t>CBF1000</t>
+  </si>
+  <si>
+    <t>MECÁNICA</t>
+  </si>
+  <si>
+    <t>CIT2000</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2100</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM1006</t>
+  </si>
+  <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>CBM1005</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
-    <t>CIT1000</t>
-  </si>
-  <si>
-    <t>PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>FIC1000</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
-  </si>
-  <si>
-    <t>CBM1003</t>
-  </si>
-  <si>
-    <t>CÁLCULO II</t>
-  </si>
-  <si>
-    <t>11, 12, 13, 16, 17</t>
-  </si>
-  <si>
-    <t>CIT1010</t>
-  </si>
-  <si>
-    <t>PROGRAMACIÓN AVANZADA</t>
-  </si>
-  <si>
-    <t>14, 15</t>
-  </si>
-  <si>
-    <t>CBM1002</t>
-  </si>
-  <si>
-    <t>ÁLGEBRA LINEAL</t>
-  </si>
-  <si>
-    <t>CBF1000</t>
-  </si>
-  <si>
-    <t>MECÁNICA</t>
-  </si>
-  <si>
-    <t>CIT2000</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT2100</t>
-  </si>
-  <si>
-    <t>REDES DE DATOS</t>
-  </si>
-  <si>
-    <t>24, 29, 31</t>
-  </si>
-  <si>
-    <t>CIT2204</t>
-  </si>
-  <si>
-    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
-  </si>
-  <si>
-    <t>29, 30</t>
-  </si>
-  <si>
-    <t>CBM1006</t>
-  </si>
-  <si>
-    <t>CÁLCULO III</t>
-  </si>
-  <si>
-    <t>BASES DE DATOS</t>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>CIT2003</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>15, 25</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>CIG1014</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL III</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>CII1000</t>
@@ -157,130 +313,7 @@
     <t>CONTABILIDAD Y COSTOS</t>
   </si>
   <si>
-    <t>CBM1005</t>
-  </si>
-  <si>
-    <t>ECUACIONES DIFERENCIALES</t>
-  </si>
-  <si>
-    <t>7, 8, 33</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>11, 17, 22</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>CFG</t>
-  </si>
-  <si>
-    <t>18, 22, 28</t>
-  </si>
-  <si>
-    <t>CBF1001</t>
-  </si>
-  <si>
-    <t>CALOR Y ONDAS</t>
-  </si>
-  <si>
-    <t>CBM2000</t>
-  </si>
-  <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
-    <t>CBF1002</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD Y MAGNETISMO</t>
-  </si>
-  <si>
-    <t>CIT2001</t>
-  </si>
-  <si>
-    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>24, 25</t>
-  </si>
-  <si>
-    <t>FIC1001</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
-    <t>CII2750</t>
-  </si>
-  <si>
-    <t>OPTIMIZACIÓN</t>
-  </si>
-  <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>30, 32</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS I</t>
-  </si>
-  <si>
-    <t>34, 41</t>
-  </si>
-  <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
-    <t>31, 34</t>
-  </si>
-  <si>
-    <t>FIC1002</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL II</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>CII2000</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>CIT2202</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>CIT2101</t>
-  </si>
-  <si>
-    <t>SEÑALES Y SISTEMAS</t>
-  </si>
-  <si>
-    <t>CIT2003</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERATIVOS</t>
-  </si>
-  <si>
-    <t>CIT2103</t>
-  </si>
-  <si>
-    <t>SISTEMAS DIGITALES</t>
+    <t>47</t>
   </si>
   <si>
     <t>CIT2005</t>
@@ -289,7 +322,7 @@
     <t>INGENIERÍA DE SOFTWARE</t>
   </si>
   <si>
-    <t>39, 41</t>
+    <t>40, 42</t>
   </si>
   <si>
     <t>CIT2102</t>
@@ -298,6 +331,9 @@
     <t>COMUNICACIONES DIGITALES</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>FIC1003</t>
   </si>
   <si>
@@ -322,6 +358,9 @@
     <t>ARQUITECTURA DE SISTEMAS</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>CIT2105</t>
   </si>
   <si>
@@ -334,13 +373,52 @@
     <t>PROYECTO EN TICS II</t>
   </si>
   <si>
-    <t>CIT33XX</t>
-  </si>
-  <si>
-    <t>Electivo Profesional</t>
-  </si>
-  <si>
-    <t>CIT34XX</t>
+    <t>24, 34, 35</t>
+  </si>
+  <si>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35, 42</t>
+  </si>
+  <si>
+    <t>31, 35</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CIG1013</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
   </si>
   <si>
     <t>CIT3200</t>
@@ -349,42 +427,29 @@
     <t>EVALUACIÓN DE PROYECTOS TIC</t>
   </si>
   <si>
-    <t>CFG2310</t>
-  </si>
-  <si>
-    <t>LAS ELECCIONES POLÍTICAS EN CHILE</t>
-  </si>
-  <si>
-    <t>CIT3349</t>
-  </si>
-  <si>
-    <t>GRAFOS Y ALGORITMOS</t>
-  </si>
-  <si>
-    <t>CIT3417</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍAS INALÁMBRICAS</t>
+    <t>33, 41</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -564,64 +629,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{692B7B44-3E88-491A-943D-139A7AC579AF}"/>
     <cellStyle name="Notas" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -709,16 +795,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>419040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1109,30 +1195,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1148,59 +1235,72 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="9">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="9">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1210,14 +1310,17 @@
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>9</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1227,14 +1330,17 @@
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>38</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1244,14 +1350,17 @@
       <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1261,14 +1370,17 @@
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="12">
+      <c r="F9" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1278,14 +1390,17 @@
       <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1295,658 +1410,774 @@
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12">
+      <c r="F11" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="14">
+        <v>18</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="21">
+        <v>7</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="F14" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="21">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14">
+        <v>19</v>
+      </c>
+      <c r="F16" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="14">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="21">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="15">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="18">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="18">
+        <v>33</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="17">
-        <v>23</v>
-      </c>
-      <c r="E19" s="18">
+        <v>47</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="18">
+        <v>49</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="17">
+        <v>23</v>
+      </c>
+      <c r="F20" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="22">
+        <v>14</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="17">
+        <v>27</v>
+      </c>
+      <c r="F23" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="17">
-        <v>27</v>
-      </c>
-      <c r="E21" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>22</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="E24" s="25">
+        <v>29</v>
+      </c>
+      <c r="F24" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C25" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="20">
-        <v>29</v>
-      </c>
-      <c r="E22" s="21">
+      <c r="D25" s="27">
+        <v>18</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>23</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="19" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>24</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="21">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>24</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="D26" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>25</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>27</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="E26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="25">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D27" s="24">
+        <v>19</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="26">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="25">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="26">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="24">
+        <v>21</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="30">
+        <v>12</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
         <v>30</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B32" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D32" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="30">
+        <v>23</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>53</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>33</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="34">
+        <v>2</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>34</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
         <v>35</v>
       </c>
-      <c r="E29" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="B38" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="34">
+        <v>30</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>36</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="34">
+        <v>0</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>37</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="34">
+        <v>32</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <v>38</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="38">
+        <v>5</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>39</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>40</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="38">
         <v>31</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="24">
-        <v>40</v>
-      </c>
-      <c r="E30" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>32</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="24">
-        <v>37</v>
-      </c>
-      <c r="E31" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
-        <v>33</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="27">
+      <c r="E43" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
+        <v>41</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="41">
+        <v>43</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="42">
+        <v>0</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="41">
+        <v>44</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="42">
+        <v>0</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="41">
+        <v>45</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="42">
+        <v>0</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="41">
         <v>46</v>
       </c>
-      <c r="E32" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>34</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>35</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="27">
-        <v>41</v>
-      </c>
-      <c r="E34" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
-        <v>36</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
-        <v>37</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
-        <v>38</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
-        <v>39</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
-        <v>40</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
-        <v>41</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="30">
-        <v>46</v>
-      </c>
-      <c r="E40" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
-        <v>43</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="34">
+      <c r="B48" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="44">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
-        <v>44</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="34">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="41">
+        <v>47</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="42">
+        <v>0</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="44">
         <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
-        <v>46</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="33">
-        <v>51</v>
-      </c>
-      <c r="E43" s="34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
-        <v>47</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="35">
-        <v>48</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
-        <v>49</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="35">
-        <v>50</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
-        <v>10</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
-        <v>26</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="40">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEB250-E5C4-45F2-9559-2A080E6908D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B5ABB2-A63B-43BE-AA32-B99FEB94BF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -70,18 +70,12 @@
     <t>CÁLCULO I</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
     <t>CBQ1000</t>
   </si>
   <si>
     <t>QUÍMICA</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>CIT1000</t>
   </si>
   <si>
@@ -118,24 +112,12 @@
     <t>ÁLGEBRA LINEAL</t>
   </si>
   <si>
-    <t>11, 22</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CBF1000</t>
   </si>
   <si>
     <t>MECÁNICA</t>
   </si>
   <si>
-    <t>13, 17</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>CIT2000</t>
   </si>
   <si>
@@ -169,74 +151,288 @@
     <t>CÁLCULO III</t>
   </si>
   <si>
-    <t>17, 18, 22</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
-  </si>
-  <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
-    <t>CIT2007</t>
-  </si>
-  <si>
     <t>BASES DE DATOS</t>
   </si>
   <si>
-    <t>25, 37, 42</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>CIT2008</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB Y MÓVIL</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>CII1000</t>
   </si>
   <si>
     <t>CONTABILIDAD Y COSTOS</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>CBM1005</t>
   </si>
   <si>
     <t>ECUACIONES DIFERENCIALES</t>
   </si>
   <si>
-    <t>17, 18</t>
-  </si>
-  <si>
     <t>6, 7</t>
   </si>
   <si>
-    <t>2018</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>7, 8, 33</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>11, 17, 22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>FIC1001</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>34, 41</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>31, 34</t>
+  </si>
+  <si>
+    <t>FIC1002</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>CIT2003</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>15, 25</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>CIT2005</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>39, 41</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>CIT2203</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIT2004</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>CIT2105</t>
+  </si>
+  <si>
+    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
+  </si>
+  <si>
+    <t>CIT2201</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS II</t>
+  </si>
+  <si>
+    <t>24, 34, 35</t>
+  </si>
+  <si>
+    <t>CIT3200</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE PROYECTOS TIC</t>
+  </si>
+  <si>
+    <t>33, 41</t>
+  </si>
+  <si>
+    <t>38,21</t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>CIT5001</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 1</t>
+  </si>
+  <si>
+    <t>3,10, 13, 15, 16, 17, 18 ,19 ,20, 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -278,13 +474,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,25 +506,61 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF8BDBCE"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BDBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF949A4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF16B6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA3EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,41 +618,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
+  <cellStyles count="5">
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="3" builtinId="10"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{3C21357D-D591-4577-A19B-29377BAFE5BB}"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,7 +896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,13 +1192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -923,15 +1208,15 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,464 +1236,944 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="23">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="32">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="E4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>9</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="33">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="33">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="17">
+        <v>18</v>
+      </c>
+      <c r="F13" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="34">
+        <v>7</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="34">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17">
+        <v>19</v>
+      </c>
+      <c r="F16" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="34">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="18">
+        <v>23</v>
+      </c>
+      <c r="F20" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="35">
+        <v>14</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="35">
         <v>0</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="35">
+        <v>5</v>
+      </c>
+      <c r="E23" s="18">
+        <v>27</v>
+      </c>
+      <c r="F23" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="19">
+        <v>29</v>
+      </c>
+      <c r="F24" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="37">
+        <v>18</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="27">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="36">
+        <v>19</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="36">
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="E28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="36">
+        <v>21</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="38">
+        <v>12</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="20">
+        <v>35</v>
+      </c>
+      <c r="F32" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="20">
+        <v>40</v>
+      </c>
+      <c r="F33" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="38">
+        <v>23</v>
+      </c>
+      <c r="E34" s="20">
+        <v>37</v>
+      </c>
+      <c r="F34" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="39">
+        <v>2</v>
+      </c>
+      <c r="E35" s="21">
+        <v>46</v>
+      </c>
+      <c r="F35" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="39">
+        <v>30</v>
+      </c>
+      <c r="E37" s="21">
+        <v>41</v>
+      </c>
+      <c r="F37" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="39">
+        <v>32</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="40">
+        <v>34</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="40">
+        <v>31</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="22">
+        <v>46</v>
+      </c>
+      <c r="F43" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="41">
+        <v>43</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="43">
         <v>9</v>
       </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="41">
+        <v>44</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="44">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E45" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="41">
+        <v>45</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="44">
         <v>0</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="E46" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="43">
         <v>9</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="15">
-        <v>19</v>
-      </c>
-      <c r="E12" s="16">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="41">
+        <v>46</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="42">
+        <v>51</v>
+      </c>
+      <c r="F47" s="43">
         <v>9</v>
       </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>15</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="41">
+        <v>47</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="44">
+        <v>0</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="43">
         <v>9</v>
       </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="19">
-        <v>4</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>12</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="19">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>21</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="45">
+        <v>53</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18">
-        <v>27</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4</v>
-      </c>
-      <c r="F16" s="18">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>19</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="19">
-        <v>4</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>20</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="19">
-        <v>4</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>28</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="19">
-        <v>6</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>11</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="19">
-        <v>3</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47"/>
+      <c r="F49" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536CDEF6-E2A9-4D5D-8392-9841BC0094C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B5ABB2-A63B-43BE-AA32-B99FEB94BF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -118,32 +118,321 @@
     <t>MECÁNICA</t>
   </si>
   <si>
+    <t>CIT2000</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2100</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
+  <si>
+    <t>24, 29, 31</t>
+  </si>
+  <si>
+    <t>CIT2204</t>
+  </si>
+  <si>
+    <t>PROBABILIDADES Y ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CBM1006</t>
+  </si>
+  <si>
+    <t>CÁLCULO III</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>CII1000</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y COSTOS</t>
+  </si>
+  <si>
+    <t>CBM1005</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>7, 8, 33</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>11, 17, 22</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>7, 8, 34</t>
+    <t>18, 22, 28</t>
+  </si>
+  <si>
+    <t>CBF1001</t>
+  </si>
+  <si>
+    <t>CALOR Y ONDAS</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>CBM2000</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>CBF1002</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>CIT2001</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>FIC1001</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>CII2750</t>
+  </si>
+  <si>
+    <t>OPTIMIZACIÓN</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>CIT2106</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
+  </si>
+  <si>
+    <t>30, 32</t>
+  </si>
+  <si>
+    <t>CIT2200</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS I</t>
+  </si>
+  <si>
+    <t>34, 41</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>CIT2002</t>
+  </si>
+  <si>
+    <t>31, 34</t>
+  </si>
+  <si>
+    <t>FIC1002</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>CII2000</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>15, 16, 22</t>
+  </si>
+  <si>
+    <t>CIT2101</t>
+  </si>
+  <si>
+    <t>SEÑALES Y SISTEMAS</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>CIT2003</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>15, 25</t>
+  </si>
+  <si>
+    <t>CIT2103</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>CIT2005</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>39, 41</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>FIC1003</t>
+  </si>
+  <si>
+    <t>DERECHO EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>CIT2203</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIT2004</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>CIT2105</t>
+  </si>
+  <si>
+    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
+  </si>
+  <si>
+    <t>CIT2201</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS II</t>
+  </si>
+  <si>
+    <t>24, 34, 35</t>
+  </si>
+  <si>
+    <t>CIT3200</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE PROYECTOS TIC</t>
+  </si>
+  <si>
+    <t>33, 41</t>
+  </si>
+  <si>
+    <t>38,21</t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>CIT5001</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 1</t>
+  </si>
+  <si>
+    <t>3,10, 13, 15, 16, 17, 18 ,19 ,20, 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -191,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +512,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BDBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF949A4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF16B6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA3EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,40 +618,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
+  <cellStyles count="5">
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="3" builtinId="10"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{3C21357D-D591-4577-A19B-29377BAFE5BB}"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,8 +800,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>419040</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -505,7 +896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -801,31 +1192,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -855,17 +1246,17 @@
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="32">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -875,18 +1266,17 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="32">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="23">
         <v>1</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -896,17 +1286,17 @@
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="32">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -916,17 +1306,17 @@
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="15">
         <v>9</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -936,95 +1326,854 @@
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="33">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="33">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="17">
+        <v>18</v>
+      </c>
+      <c r="F13" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="D14" s="34">
+        <v>7</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="34">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17">
+        <v>19</v>
+      </c>
+      <c r="F16" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="34">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="18">
+        <v>23</v>
+      </c>
+      <c r="F20" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="35">
+        <v>14</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="35">
+        <v>5</v>
+      </c>
+      <c r="E23" s="18">
+        <v>27</v>
+      </c>
+      <c r="F23" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="19">
+        <v>29</v>
+      </c>
+      <c r="F24" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="37">
+        <v>18</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="27">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="36">
+        <v>19</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="36">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="36">
+        <v>21</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="38">
+        <v>12</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="12">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="20">
+        <v>35</v>
+      </c>
+      <c r="F32" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="20">
+        <v>40</v>
+      </c>
+      <c r="F33" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="38">
+        <v>23</v>
+      </c>
+      <c r="E34" s="20">
+        <v>37</v>
+      </c>
+      <c r="F34" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="E35" s="21">
+        <v>46</v>
+      </c>
+      <c r="F35" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="39">
+        <v>30</v>
+      </c>
+      <c r="E37" s="21">
+        <v>41</v>
+      </c>
+      <c r="F37" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="39">
+        <v>32</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="40">
+        <v>34</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="40">
+        <v>31</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="22">
+        <v>46</v>
+      </c>
+      <c r="F43" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="41">
+        <v>43</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="43">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="41">
+        <v>44</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="44">
+        <v>0</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="41">
+        <v>45</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="44">
+        <v>0</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="41">
+        <v>46</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="42">
+        <v>51</v>
+      </c>
+      <c r="F47" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="41">
+        <v>47</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="44">
+        <v>0</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="45">
+        <v>53</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B5ABB2-A63B-43BE-AA32-B99FEB94BF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366A89E-A34B-4132-A4B1-415468FF2D9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -316,24 +316,12 @@
     <t>39, 41</t>
   </si>
   <si>
-    <t>CIT2102</t>
-  </si>
-  <si>
-    <t>COMUNICACIONES DIGITALES</t>
-  </si>
-  <si>
     <t>FIC1003</t>
   </si>
   <si>
     <t>DERECHO EN INGENIERÍA</t>
   </si>
   <si>
-    <t>CIT2104</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE COMPUTADORES</t>
-  </si>
-  <si>
     <t>CIT2203</t>
   </si>
   <si>
@@ -352,24 +340,6 @@
     <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
   </si>
   <si>
-    <t>CIT2201</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS II</t>
-  </si>
-  <si>
-    <t>24, 34, 35</t>
-  </si>
-  <si>
-    <t>CIT3200</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN DE PROYECTOS TIC</t>
-  </si>
-  <si>
-    <t>33, 41</t>
-  </si>
-  <si>
     <t>38,21</t>
   </si>
   <si>
@@ -379,9 +349,6 @@
     <t>CFG-2</t>
   </si>
   <si>
-    <t>CFG-3</t>
-  </si>
-  <si>
     <t>CIT3310</t>
   </si>
   <si>
@@ -404,15 +371,6 @@
   </si>
   <si>
     <t>ELECTIVO PROFESIONAL INF 2</t>
-  </si>
-  <si>
-    <t>CIT5001</t>
-  </si>
-  <si>
-    <t>PRÁCTICA PROFESIONAL 1</t>
-  </si>
-  <si>
-    <t>3,10, 13, 15, 16, 17, 18 ,19 ,20, 21</t>
   </si>
 </sst>
 </file>
@@ -480,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,12 +515,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -625,7 +577,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -693,19 +645,13 @@
     <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{3C21357D-D591-4577-A19B-29377BAFE5BB}"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Notas" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -896,7 +842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1192,23 +1138,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1256,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1276,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1296,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1316,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1330,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F7" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1356,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1376,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1396,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1416,15 +1362,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D12" s="33">
         <v>0</v>
@@ -1436,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1456,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1476,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1496,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1516,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1536,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1556,7 +1502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1576,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1596,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1616,15 +1562,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D22" s="35">
         <v>0</v>
@@ -1636,7 +1582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1656,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -1676,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -1697,7 +1643,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1717,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1737,18 +1683,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D28" s="36">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>47</v>
@@ -1757,38 +1703,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="36">
-        <v>21</v>
-      </c>
-      <c r="E29" s="19" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="38">
+        <v>12</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="38">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>47</v>
@@ -1797,383 +1743,265 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>47</v>
+        <v>85</v>
+      </c>
+      <c r="E31" s="20">
+        <v>35</v>
       </c>
       <c r="F31" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E32" s="20">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F32" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D33" s="38">
+        <v>23</v>
       </c>
       <c r="E33" s="20">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F33" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="38">
-        <v>23</v>
-      </c>
-      <c r="E34" s="20">
-        <v>37</v>
-      </c>
-      <c r="F34" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="39">
+        <v>2</v>
+      </c>
+      <c r="E34" s="21">
+        <v>46</v>
+      </c>
+      <c r="F34" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="39">
-        <v>2</v>
-      </c>
-      <c r="E35" s="21">
-        <v>46</v>
+        <v>92</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="F35" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>61</v>
+        <v>95</v>
+      </c>
+      <c r="D36" s="39">
+        <v>0</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="F36" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>35</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="39">
-        <v>30</v>
-      </c>
-      <c r="E37" s="21">
-        <v>41</v>
-      </c>
-      <c r="F37" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>36</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>38</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D37" s="40">
+        <v>5</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>39</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="40">
+        <v>34</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>40</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="40">
+        <v>31</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="41">
+        <v>43</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="44">
         <v>0</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E40" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="39">
-        <v>32</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="F40" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="41">
+        <v>44</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="44">
+        <v>0</v>
+      </c>
+      <c r="E41" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
-        <v>38</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="40">
-        <v>5</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="F41" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="41">
+        <v>45</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="44">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>39</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="40">
-        <v>34</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="F42" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="41">
         <v>47</v>
       </c>
-      <c r="F41" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>40</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="40">
-        <v>31</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="B43" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="44">
+        <v>0</v>
+      </c>
+      <c r="E43" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>41</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="22">
-        <v>46</v>
-      </c>
-      <c r="F43" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="41">
-        <v>43</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="44">
-        <v>0</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="43">
+      <c r="F43" s="43">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="41">
-        <v>44</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="44">
-        <v>0</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="41">
-        <v>45</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="44">
-        <v>0</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="41">
-        <v>46</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="42">
-        <v>51</v>
-      </c>
-      <c r="F47" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
-        <v>47</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="44">
-        <v>0</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="45">
-        <v>53</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366A89E-A34B-4132-A4B1-415468FF2D9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C25E9-1A58-4D89-964D-6939379CCD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -322,24 +322,6 @@
     <t>DERECHO EN INGENIERÍA</t>
   </si>
   <si>
-    <t>CIT2203</t>
-  </si>
-  <si>
-    <t>GESTIÓN ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>CIT2004</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SISTEMAS</t>
-  </si>
-  <si>
-    <t>CIT2105</t>
-  </si>
-  <si>
-    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
-  </si>
-  <si>
     <t>38,21</t>
   </si>
   <si>
@@ -349,28 +331,28 @@
     <t>CFG-2</t>
   </si>
   <si>
-    <t>CIT3310</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 1</t>
-  </si>
-  <si>
-    <t>CIT3410</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 1</t>
-  </si>
-  <si>
-    <t>CIT3411</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 2</t>
-  </si>
-  <si>
-    <t>CIT3311</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 2</t>
+    <t>CFG1</t>
+  </si>
+  <si>
+    <t>CFG2</t>
+  </si>
+  <si>
+    <t>CFG3</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CIT2102</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES</t>
+  </si>
+  <si>
+    <t>CIT2104</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
   </si>
 </sst>
 </file>
@@ -438,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,12 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF16B6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +553,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -587,64 +563,58 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -1141,20 +1111,20 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A3" sqref="A3:F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1182,826 +1152,778 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="12">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="12">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>9</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="E7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="33">
+      <c r="B12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="21">
         <v>18</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="20">
         <v>7</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="20">
         <v>9</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="21">
         <v>19</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="20">
         <v>9</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="25">
         <v>23</v>
       </c>
       <c r="F20" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="24">
         <v>14</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="B22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="24">
         <v>5</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="25">
         <v>27</v>
       </c>
       <c r="F23" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="29">
         <v>29</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="31">
         <v>18</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="30">
         <v>5</v>
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="28">
         <v>19</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>26</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D29" s="28">
         <v>21</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E29" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F29" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D30" s="34">
         <v>12</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E30" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F30" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B31" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D31" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F31" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B32" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D32" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E32" s="35">
         <v>35</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F32" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D33" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E33" s="35">
         <v>40</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F33" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D34" s="34">
         <v>23</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E34" s="35">
         <v>37</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F34" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D35" s="38">
         <v>2</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E35" s="39">
         <v>46</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F35" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B36" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F36" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="38">
+        <v>30</v>
+      </c>
+      <c r="E37" s="39">
+        <v>41</v>
+      </c>
+      <c r="F37" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
         <v>36</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B38" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C38" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D38" s="38">
         <v>0</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F38" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>38</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="40">
-        <v>5</v>
-      </c>
-      <c r="E37" s="22" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="38">
+        <v>32</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
-        <v>39</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="40">
-        <v>34</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
-        <v>40</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="40">
-        <v>31</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
-        <v>43</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="44">
-        <v>0</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="41">
-        <v>44</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="44">
-        <v>0</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
-        <v>45</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="44">
-        <v>0</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="41">
-        <v>47</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="44">
-        <v>0</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="43">
-        <v>9</v>
-      </c>
+      <c r="F39" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366A89E-A34B-4132-A4B1-415468FF2D9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E966778-3E73-4D80-AC1A-3B0DF8969ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -154,12 +154,6 @@
     <t>BASES DE DATOS</t>
   </si>
   <si>
-    <t>CII1000</t>
-  </si>
-  <si>
-    <t>CONTABILIDAD Y COSTOS</t>
-  </si>
-  <si>
     <t>CBM1005</t>
   </si>
   <si>
@@ -169,15 +163,6 @@
     <t>6, 7</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>7, 8, 33</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>11, 17, 22</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>24, 25</t>
   </si>
   <si>
-    <t>FIC1001</t>
-  </si>
-  <si>
     <t>INGLÉS GENERAL I</t>
   </si>
   <si>
@@ -250,127 +232,58 @@
     <t>PROYECTO EN TICS I</t>
   </si>
   <si>
-    <t>34, 41</t>
-  </si>
-  <si>
     <t>15, 19</t>
   </si>
   <si>
     <t>CIT2002</t>
   </si>
   <si>
-    <t>31, 34</t>
-  </si>
-  <si>
-    <t>FIC1002</t>
-  </si>
-  <si>
     <t>INGLÉS GENERAL II</t>
   </si>
   <si>
-    <t>CII2000</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN  A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>CIT2202</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>15, 16, 22</t>
-  </si>
-  <si>
-    <t>CIT2101</t>
-  </si>
-  <si>
-    <t>SEÑALES Y SISTEMAS</t>
-  </si>
-  <si>
-    <t>16, 23</t>
-  </si>
-  <si>
-    <t>CIT2003</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERATIVOS</t>
-  </si>
-  <si>
-    <t>15, 25</t>
-  </si>
-  <si>
-    <t>CIT2103</t>
-  </si>
-  <si>
-    <t>SISTEMAS DIGITALES</t>
-  </si>
-  <si>
-    <t>CIT2005</t>
-  </si>
-  <si>
-    <t>INGENIERÍA DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>39, 41</t>
-  </si>
-  <si>
-    <t>FIC1003</t>
-  </si>
-  <si>
-    <t>DERECHO EN INGENIERÍA</t>
-  </si>
-  <si>
-    <t>CIT2203</t>
-  </si>
-  <si>
-    <t>GESTIÓN ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>CIT2004</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SISTEMAS</t>
-  </si>
-  <si>
-    <t>CIT2105</t>
-  </si>
-  <si>
-    <t>CRIPTOGRAFÍA Y SEGURIDAD EN REDES</t>
-  </si>
-  <si>
-    <t>38,21</t>
-  </si>
-  <si>
     <t>CFG-1</t>
   </si>
   <si>
     <t>CFG-2</t>
   </si>
   <si>
-    <t>CIT3310</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 1</t>
-  </si>
-  <si>
-    <t>CIT3410</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 1</t>
-  </si>
-  <si>
-    <t>CIT3411</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 2</t>
-  </si>
-  <si>
-    <t>CIT3311</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 2</t>
+    <t>7, 8, 34</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>CFG1</t>
+  </si>
+  <si>
+    <t>CFG2</t>
+  </si>
+  <si>
+    <t>CIG1012</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35, 42</t>
+  </si>
+  <si>
+    <t>31, 35</t>
+  </si>
+  <si>
+    <t>CFG3</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CIG1013</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
@@ -587,49 +500,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -645,6 +524,40 @@
     <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -1141,28 +1054,28 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1182,826 +1095,658 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="24">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="24">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>9</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>38</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="33">
+        <v>18</v>
+      </c>
+      <c r="F13" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="32">
+        <v>7</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="C15" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="32">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="32">
+        <v>9</v>
+      </c>
+      <c r="E16" s="33">
+        <v>19</v>
+      </c>
+      <c r="F16" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="32">
+        <v>9</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="37">
+        <v>23</v>
+      </c>
+      <c r="F20" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="36">
+        <v>14</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>20</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="36">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="E22" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="32">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
+        <v>21</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="37">
+        <v>27</v>
+      </c>
+      <c r="F23" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>22</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="41">
+        <v>29</v>
+      </c>
+      <c r="F24" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>23</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="43">
+        <v>18</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="42">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>25</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="40">
+        <v>19</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>26</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="40">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
-        <v>9</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="E28" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="42">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="33">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="33">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="D10" s="33">
-        <v>2</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B29" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="40">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="33">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="33">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="17">
-        <v>18</v>
-      </c>
-      <c r="F13" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="34">
-        <v>7</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="34">
-        <v>9</v>
-      </c>
-      <c r="E16" s="17">
-        <v>19</v>
-      </c>
-      <c r="F16" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="34">
-        <v>9</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="18">
-        <v>23</v>
-      </c>
-      <c r="F20" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="35">
-        <v>14</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="35">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="35">
+      <c r="E29" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="42">
         <v>5</v>
       </c>
-      <c r="E23" s="18">
-        <v>27</v>
-      </c>
-      <c r="F23" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="19">
-        <v>29</v>
-      </c>
-      <c r="F24" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="37">
-        <v>18</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="27">
-        <v>5</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="36">
-        <v>19</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="36">
-        <v>21</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="38">
-        <v>12</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="20">
-        <v>35</v>
-      </c>
-      <c r="F31" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="20">
-        <v>40</v>
-      </c>
-      <c r="F32" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="38">
-        <v>23</v>
-      </c>
-      <c r="E33" s="20">
-        <v>37</v>
-      </c>
-      <c r="F33" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="39">
-        <v>2</v>
-      </c>
-      <c r="E34" s="21">
-        <v>46</v>
-      </c>
-      <c r="F34" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
-        <v>36</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="39">
-        <v>0</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>38</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="40">
-        <v>5</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
-        <v>39</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="40">
-        <v>34</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
-        <v>40</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="40">
-        <v>31</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
-        <v>43</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="44">
-        <v>0</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="41">
-        <v>44</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="44">
-        <v>0</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
-        <v>45</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="44">
-        <v>0</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="41">
-        <v>47</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="44">
-        <v>0</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="43">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/RutaCritica/MiMalla.xlsx
+++ b/RutaCritica/MiMalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E966778-3E73-4D80-AC1A-3B0DF8969ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7243CE33-D2E5-4E26-A856-58BD4A5745AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiMalla" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -151,9 +151,6 @@
     <t>CÁLCULO III</t>
   </si>
   <si>
-    <t>BASES DE DATOS</t>
-  </si>
-  <si>
     <t>CBM1005</t>
   </si>
   <si>
@@ -205,85 +202,22 @@
     <t>24, 25</t>
   </si>
   <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
-    <t>CII2750</t>
-  </si>
-  <si>
-    <t>OPTIMIZACIÓN</t>
-  </si>
-  <si>
-    <t>6, 12</t>
-  </si>
-  <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA Y ELECTROTECNIA</t>
-  </si>
-  <si>
-    <t>30, 32</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS I</t>
-  </si>
-  <si>
-    <t>15, 19</t>
-  </si>
-  <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL II</t>
-  </si>
-  <si>
     <t>CFG-1</t>
   </si>
   <si>
     <t>CFG-2</t>
   </si>
   <si>
-    <t>7, 8, 34</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>CFG1</t>
-  </si>
-  <si>
-    <t>CFG2</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>35, 42</t>
-  </si>
-  <si>
-    <t>31, 35</t>
-  </si>
-  <si>
-    <t>CFG3</t>
-  </si>
-  <si>
-    <t>CFG-3</t>
-  </si>
-  <si>
-    <t>CIG1013</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>2018</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>7, 8, 33</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>38,21</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +988,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F4" s="26">
         <v>1</v>
@@ -1149,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F5" s="26">
         <v>1</v>
@@ -1188,8 +1122,8 @@
       <c r="D7" s="24">
         <v>0</v>
       </c>
-      <c r="E7" s="25">
-        <v>38</v>
+      <c r="E7" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="26">
         <v>1</v>
@@ -1209,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="30">
         <v>2</v>
@@ -1249,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="30">
         <v>2</v>
@@ -1280,16 +1214,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D12" s="28">
         <v>0</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F12" s="30">
         <v>2</v>
@@ -1300,13 +1234,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="D13" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="33">
         <v>18</v>
@@ -1329,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="34">
         <v>3</v>
@@ -1340,16 +1274,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>48</v>
-      </c>
       <c r="E15" s="33" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F15" s="34">
         <v>3</v>
@@ -1420,16 +1354,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F19" s="38">
         <v>4</v>
@@ -1440,13 +1374,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="37">
         <v>23</v>
@@ -1460,16 +1394,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="36">
         <v>14</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="38">
         <v>4</v>
@@ -1480,161 +1414,77 @@
         <v>20</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F22" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
-        <v>21</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="37">
-        <v>27</v>
-      </c>
-      <c r="F23" s="38">
-        <v>4</v>
-      </c>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>22</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="41">
-        <v>29</v>
-      </c>
-      <c r="F24" s="42">
-        <v>5</v>
-      </c>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>23</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="43">
-        <v>18</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="42">
-        <v>5</v>
-      </c>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="42"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>24</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="42">
-        <v>5</v>
-      </c>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>25</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="40">
-        <v>19</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="42">
-        <v>5</v>
-      </c>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>26</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="40">
-        <v>0</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="42">
-        <v>5</v>
-      </c>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
-        <v>27</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="40">
-        <v>21</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="42">
-        <v>5</v>
-      </c>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
